--- a/attendance-files/SDM/SDM-M (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/SDM/SDM-M (ABCD) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="160">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -878,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -993,9 +993,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
@@ -1616,11 +1613,11 @@
       </c>
       <c r="E7" s="28">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="29">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>20</v>
@@ -1628,11 +1625,19 @@
       <c r="H7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="32"/>
+      <c r="I7" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
+      <c r="K7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="N7" s="32"/>
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
@@ -1664,11 +1669,11 @@
       </c>
       <c r="E8" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>20</v>
@@ -1676,11 +1681,19 @@
       <c r="H8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="40"/>
+      <c r="I8" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="K8" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N8" s="40"/>
       <c r="O8" s="40"/>
       <c r="P8" s="40"/>
@@ -1716,7 +1729,7 @@
       </c>
       <c r="F9" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>20</v>
@@ -1724,11 +1737,19 @@
       <c r="H9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="40"/>
+      <c r="I9" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="K9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N9" s="40"/>
       <c r="O9" s="40"/>
       <c r="P9" s="40"/>
@@ -1760,23 +1781,31 @@
       </c>
       <c r="E10" s="28">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F10" s="37">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F10" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G10" s="38" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="40"/>
+      <c r="I10" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="K10" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N10" s="40"/>
       <c r="O10" s="40"/>
       <c r="P10" s="40"/>
@@ -1812,7 +1841,7 @@
       </c>
       <c r="F11" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>21</v>
@@ -1820,11 +1849,19 @@
       <c r="H11" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="40"/>
+      <c r="I11" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="K11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N11" s="40"/>
       <c r="O11" s="40"/>
       <c r="P11" s="40"/>
@@ -1860,7 +1897,7 @@
       </c>
       <c r="F12" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>21</v>
@@ -1868,11 +1905,19 @@
       <c r="H12" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="40"/>
+      <c r="I12" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="K12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N12" s="40"/>
       <c r="O12" s="40"/>
       <c r="P12" s="40"/>
@@ -1904,11 +1949,11 @@
       </c>
       <c r="E13" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="38" t="s">
         <v>20</v>
@@ -1916,11 +1961,19 @@
       <c r="H13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="40"/>
+      <c r="I13" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
+      <c r="K13" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N13" s="40"/>
       <c r="O13" s="40"/>
       <c r="P13" s="40"/>
@@ -1956,7 +2009,7 @@
       </c>
       <c r="F14" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>21</v>
@@ -1964,11 +2017,19 @@
       <c r="H14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="40"/>
+      <c r="I14" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="K14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N14" s="40"/>
       <c r="O14" s="40"/>
       <c r="P14" s="40"/>
@@ -2000,11 +2061,11 @@
       </c>
       <c r="E15" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>20</v>
@@ -2012,11 +2073,19 @@
       <c r="H15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="40"/>
+      <c r="I15" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="K15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N15" s="40"/>
       <c r="O15" s="40"/>
       <c r="P15" s="40"/>
@@ -2048,23 +2117,31 @@
       </c>
       <c r="E16" s="28">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F16" s="37">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F16" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G16" s="38" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="40"/>
+      <c r="I16" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="K16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N16" s="40"/>
       <c r="O16" s="40"/>
       <c r="P16" s="40"/>
@@ -2096,11 +2173,11 @@
       </c>
       <c r="E17" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>21</v>
@@ -2108,11 +2185,19 @@
       <c r="H17" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="40"/>
+      <c r="I17" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
+      <c r="K17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N17" s="40"/>
       <c r="O17" s="40"/>
       <c r="P17" s="40"/>
@@ -2148,7 +2233,7 @@
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>20</v>
@@ -2156,11 +2241,19 @@
       <c r="H18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="40"/>
+      <c r="I18" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
+      <c r="K18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N18" s="40"/>
       <c r="O18" s="40"/>
       <c r="P18" s="40"/>
@@ -2196,7 +2289,7 @@
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G19" s="38" t="s">
         <v>20</v>
@@ -2204,11 +2297,19 @@
       <c r="H19" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="40"/>
+      <c r="I19" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
+      <c r="K19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N19" s="40"/>
       <c r="O19" s="40"/>
       <c r="P19" s="40"/>
@@ -2244,7 +2345,7 @@
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G20" s="38" t="s">
         <v>20</v>
@@ -2252,11 +2353,19 @@
       <c r="H20" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="40"/>
+      <c r="I20" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
+      <c r="K20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N20" s="40"/>
       <c r="O20" s="40"/>
       <c r="P20" s="40"/>
@@ -2292,7 +2401,7 @@
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G21" s="38" t="s">
         <v>21</v>
@@ -2300,11 +2409,19 @@
       <c r="H21" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="40"/>
+      <c r="I21" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
+      <c r="K21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N21" s="40"/>
       <c r="O21" s="40"/>
       <c r="P21" s="40"/>
@@ -2336,11 +2453,11 @@
       </c>
       <c r="E22" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>20</v>
@@ -2348,11 +2465,19 @@
       <c r="H22" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="40"/>
+      <c r="I22" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
+      <c r="K22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N22" s="40"/>
       <c r="O22" s="40"/>
       <c r="P22" s="40"/>
@@ -2388,7 +2513,7 @@
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G23" s="38" t="s">
         <v>20</v>
@@ -2396,11 +2521,19 @@
       <c r="H23" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="40"/>
+      <c r="I23" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
+      <c r="K23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N23" s="40"/>
       <c r="O23" s="40"/>
       <c r="P23" s="40"/>
@@ -2432,11 +2565,11 @@
       </c>
       <c r="E24" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24" s="38" t="s">
         <v>20</v>
@@ -2444,11 +2577,19 @@
       <c r="H24" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="40"/>
+      <c r="I24" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
+      <c r="K24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N24" s="40"/>
       <c r="O24" s="40"/>
       <c r="P24" s="40"/>
@@ -2480,11 +2621,11 @@
       </c>
       <c r="E25" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G25" s="38" t="s">
         <v>21</v>
@@ -2492,11 +2633,19 @@
       <c r="H25" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="40"/>
+      <c r="I25" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
+      <c r="K25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N25" s="40"/>
       <c r="O25" s="40"/>
       <c r="P25" s="40"/>
@@ -2528,11 +2677,11 @@
       </c>
       <c r="E26" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>21</v>
@@ -2540,11 +2689,19 @@
       <c r="H26" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="40"/>
+      <c r="I26" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
+      <c r="K26" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N26" s="40"/>
       <c r="O26" s="40"/>
       <c r="P26" s="40"/>
@@ -2576,11 +2733,11 @@
       </c>
       <c r="E27" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27" s="38" t="s">
         <v>21</v>
@@ -2588,11 +2745,19 @@
       <c r="H27" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="40"/>
+      <c r="I27" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
+      <c r="K27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N27" s="40"/>
       <c r="O27" s="40"/>
       <c r="P27" s="40"/>
@@ -2628,7 +2793,7 @@
       </c>
       <c r="F28" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G28" s="38" t="s">
         <v>20</v>
@@ -2636,11 +2801,19 @@
       <c r="H28" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="40"/>
+      <c r="I28" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
+      <c r="K28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N28" s="40"/>
       <c r="O28" s="40"/>
       <c r="P28" s="40"/>
@@ -2672,11 +2845,11 @@
       </c>
       <c r="E29" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G29" s="38" t="s">
         <v>21</v>
@@ -2684,11 +2857,19 @@
       <c r="H29" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I29" s="40"/>
+      <c r="I29" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
+      <c r="K29" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N29" s="40"/>
       <c r="O29" s="40"/>
       <c r="P29" s="40"/>
@@ -2724,7 +2905,7 @@
       </c>
       <c r="F30" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G30" s="38" t="s">
         <v>20</v>
@@ -2732,11 +2913,19 @@
       <c r="H30" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="40"/>
+      <c r="I30" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
+      <c r="K30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N30" s="40"/>
       <c r="O30" s="40"/>
       <c r="P30" s="40"/>
@@ -2772,7 +2961,7 @@
       </c>
       <c r="F31" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>20</v>
@@ -2780,11 +2969,19 @@
       <c r="H31" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="40"/>
+      <c r="I31" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
+      <c r="K31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N31" s="40"/>
       <c r="O31" s="40"/>
       <c r="P31" s="40"/>
@@ -2820,7 +3017,7 @@
       </c>
       <c r="F32" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G32" s="38" t="s">
         <v>20</v>
@@ -2828,11 +3025,19 @@
       <c r="H32" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="40"/>
+      <c r="I32" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
+      <c r="K32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N32" s="40"/>
       <c r="O32" s="40"/>
       <c r="P32" s="40"/>
@@ -2864,11 +3069,11 @@
       </c>
       <c r="E33" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G33" s="38" t="s">
         <v>20</v>
@@ -2876,11 +3081,19 @@
       <c r="H33" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="40"/>
+      <c r="I33" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
+      <c r="K33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N33" s="40"/>
       <c r="O33" s="40"/>
       <c r="P33" s="40"/>
@@ -2916,7 +3129,7 @@
       </c>
       <c r="F34" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G34" s="38" t="s">
         <v>20</v>
@@ -2924,11 +3137,19 @@
       <c r="H34" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="40"/>
+      <c r="I34" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
+      <c r="K34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N34" s="40"/>
       <c r="O34" s="40"/>
       <c r="P34" s="40"/>
@@ -2964,7 +3185,7 @@
       </c>
       <c r="F35" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G35" s="38" t="s">
         <v>20</v>
@@ -2972,11 +3193,19 @@
       <c r="H35" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="40"/>
+      <c r="I35" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
+      <c r="K35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N35" s="40"/>
       <c r="O35" s="40"/>
       <c r="P35" s="40"/>
@@ -3012,7 +3241,7 @@
       </c>
       <c r="F36" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G36" s="38" t="s">
         <v>21</v>
@@ -3020,11 +3249,19 @@
       <c r="H36" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="40"/>
+      <c r="I36" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
+      <c r="K36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N36" s="40"/>
       <c r="O36" s="40"/>
       <c r="P36" s="40"/>
@@ -3056,11 +3293,11 @@
       </c>
       <c r="E37" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G37" s="38" t="s">
         <v>20</v>
@@ -3068,11 +3305,19 @@
       <c r="H37" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="40"/>
+      <c r="I37" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
+      <c r="K37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N37" s="40"/>
       <c r="O37" s="40"/>
       <c r="P37" s="40"/>
@@ -3108,7 +3353,7 @@
       </c>
       <c r="F38" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G38" s="38" t="s">
         <v>21</v>
@@ -3116,11 +3361,19 @@
       <c r="H38" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="40"/>
+      <c r="I38" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
+      <c r="K38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N38" s="40"/>
       <c r="O38" s="40"/>
       <c r="P38" s="40"/>
@@ -3156,7 +3409,7 @@
       </c>
       <c r="F39" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G39" s="38" t="s">
         <v>21</v>
@@ -3164,11 +3417,19 @@
       <c r="H39" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="40"/>
+      <c r="I39" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
+      <c r="K39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N39" s="40"/>
       <c r="O39" s="40"/>
       <c r="P39" s="40"/>
@@ -3204,7 +3465,7 @@
       </c>
       <c r="F40" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G40" s="38" t="s">
         <v>20</v>
@@ -3212,11 +3473,19 @@
       <c r="H40" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="40"/>
+      <c r="I40" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
+      <c r="K40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N40" s="40"/>
       <c r="O40" s="40"/>
       <c r="P40" s="40"/>
@@ -3248,11 +3517,11 @@
       </c>
       <c r="E41" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G41" s="38" t="s">
         <v>21</v>
@@ -3260,11 +3529,19 @@
       <c r="H41" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="40"/>
+      <c r="I41" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
+      <c r="K41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N41" s="40"/>
       <c r="O41" s="40"/>
       <c r="P41" s="40"/>
@@ -3296,11 +3573,11 @@
       </c>
       <c r="E42" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G42" s="38" t="s">
         <v>21</v>
@@ -3308,11 +3585,19 @@
       <c r="H42" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="40"/>
+      <c r="I42" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
+      <c r="K42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N42" s="40"/>
       <c r="O42" s="40"/>
       <c r="P42" s="40"/>
@@ -3348,7 +3633,7 @@
       </c>
       <c r="F43" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G43" s="38" t="s">
         <v>20</v>
@@ -3356,11 +3641,19 @@
       <c r="H43" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="40"/>
+      <c r="I43" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
+      <c r="K43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N43" s="40"/>
       <c r="O43" s="40"/>
       <c r="P43" s="40"/>
@@ -3392,11 +3685,11 @@
       </c>
       <c r="E44" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G44" s="38" t="s">
         <v>21</v>
@@ -3404,11 +3697,19 @@
       <c r="H44" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I44" s="40"/>
+      <c r="I44" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
+      <c r="K44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N44" s="40"/>
       <c r="O44" s="40"/>
       <c r="P44" s="40"/>
@@ -3444,7 +3745,7 @@
       </c>
       <c r="F45" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>21</v>
@@ -3452,11 +3753,19 @@
       <c r="H45" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I45" s="40"/>
+      <c r="I45" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
+      <c r="K45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N45" s="40"/>
       <c r="O45" s="40"/>
       <c r="P45" s="40"/>
@@ -3488,23 +3797,31 @@
       </c>
       <c r="E46" s="28">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F46" s="37">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F46" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G46" s="38" t="s">
         <v>20</v>
       </c>
       <c r="H46" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I46" s="40"/>
+      <c r="I46" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
+      <c r="K46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N46" s="40"/>
       <c r="O46" s="40"/>
       <c r="P46" s="40"/>
@@ -3536,23 +3853,31 @@
       </c>
       <c r="E47" s="28">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F47" s="37">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F47" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G47" s="38" t="s">
         <v>20</v>
       </c>
       <c r="H47" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I47" s="40"/>
+      <c r="I47" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
+      <c r="K47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N47" s="40"/>
       <c r="O47" s="40"/>
       <c r="P47" s="40"/>
@@ -3584,23 +3909,31 @@
       </c>
       <c r="E48" s="28">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F48" s="37">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F48" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G48" s="38" t="s">
         <v>20</v>
       </c>
       <c r="H48" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I48" s="40"/>
+      <c r="I48" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
+      <c r="K48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N48" s="40"/>
       <c r="O48" s="40"/>
       <c r="P48" s="40"/>
@@ -3632,23 +3965,31 @@
       </c>
       <c r="E49" s="28">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F49" s="37">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F49" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G49" s="38" t="s">
         <v>20</v>
       </c>
       <c r="H49" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I49" s="40"/>
+      <c r="I49" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40"/>
+      <c r="K49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N49" s="40"/>
       <c r="O49" s="40"/>
       <c r="P49" s="40"/>
@@ -3680,11 +4021,11 @@
       </c>
       <c r="E50" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F50" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G50" s="38" t="s">
         <v>20</v>
@@ -3692,11 +4033,19 @@
       <c r="H50" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="40"/>
+      <c r="I50" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40"/>
+      <c r="K50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N50" s="40"/>
       <c r="O50" s="40"/>
       <c r="P50" s="40"/>
@@ -3728,11 +4077,11 @@
       </c>
       <c r="E51" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G51" s="38" t="s">
         <v>20</v>
@@ -3740,11 +4089,19 @@
       <c r="H51" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="40"/>
+      <c r="I51" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
+      <c r="K51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N51" s="40"/>
       <c r="O51" s="40"/>
       <c r="P51" s="40"/>
@@ -3780,7 +4137,7 @@
       </c>
       <c r="F52" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G52" s="38" t="s">
         <v>21</v>
@@ -3788,11 +4145,19 @@
       <c r="H52" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I52" s="40"/>
+      <c r="I52" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
+      <c r="K52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N52" s="40"/>
       <c r="O52" s="40"/>
       <c r="P52" s="40"/>
@@ -3828,7 +4193,7 @@
       </c>
       <c r="F53" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G53" s="38" t="s">
         <v>20</v>
@@ -3836,11 +4201,19 @@
       <c r="H53" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I53" s="40"/>
+      <c r="I53" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40"/>
+      <c r="K53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N53" s="40"/>
       <c r="O53" s="40"/>
       <c r="P53" s="40"/>
@@ -3872,11 +4245,11 @@
       </c>
       <c r="E54" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G54" s="38" t="s">
         <v>20</v>
@@ -3884,11 +4257,19 @@
       <c r="H54" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="40"/>
+      <c r="I54" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40"/>
+      <c r="K54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N54" s="40"/>
       <c r="O54" s="40"/>
       <c r="P54" s="40"/>
@@ -3924,7 +4305,7 @@
       </c>
       <c r="F55" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G55" s="38" t="s">
         <v>20</v>
@@ -3932,11 +4313,19 @@
       <c r="H55" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I55" s="40"/>
+      <c r="I55" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="40"/>
+      <c r="K55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N55" s="40"/>
       <c r="O55" s="40"/>
       <c r="P55" s="40"/>
@@ -3972,7 +4361,7 @@
       </c>
       <c r="F56" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G56" s="38" t="s">
         <v>20</v>
@@ -3980,11 +4369,19 @@
       <c r="H56" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I56" s="40"/>
+      <c r="I56" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="40"/>
+      <c r="K56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N56" s="40"/>
       <c r="O56" s="40"/>
       <c r="P56" s="40"/>
@@ -4016,23 +4413,31 @@
       </c>
       <c r="E57" s="28">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F57" s="37">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F57" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G57" s="38" t="s">
         <v>20</v>
       </c>
       <c r="H57" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I57" s="40"/>
+      <c r="I57" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J57" s="40"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="40"/>
+      <c r="K57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N57" s="40"/>
       <c r="O57" s="40"/>
       <c r="P57" s="40"/>
@@ -4064,23 +4469,31 @@
       </c>
       <c r="E58" s="28">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F58" s="37">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F58" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G58" s="38" t="s">
         <v>20</v>
       </c>
       <c r="H58" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I58" s="40"/>
+      <c r="I58" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J58" s="40"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="40"/>
-      <c r="M58" s="40"/>
+      <c r="K58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N58" s="40"/>
       <c r="O58" s="40"/>
       <c r="P58" s="40"/>
@@ -4112,11 +4525,11 @@
       </c>
       <c r="E59" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G59" s="38" t="s">
         <v>20</v>
@@ -4124,11 +4537,19 @@
       <c r="H59" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I59" s="40"/>
+      <c r="I59" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J59" s="40"/>
-      <c r="K59" s="40"/>
-      <c r="L59" s="40"/>
-      <c r="M59" s="40"/>
+      <c r="K59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N59" s="40"/>
       <c r="O59" s="40"/>
       <c r="P59" s="40"/>
@@ -4160,11 +4581,11 @@
       </c>
       <c r="E60" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G60" s="38" t="s">
         <v>21</v>
@@ -4172,11 +4593,19 @@
       <c r="H60" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I60" s="40"/>
+      <c r="I60" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J60" s="40"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="40"/>
+      <c r="K60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N60" s="40"/>
       <c r="O60" s="40"/>
       <c r="P60" s="40"/>
@@ -4208,11 +4637,11 @@
       </c>
       <c r="E61" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G61" s="38" t="s">
         <v>20</v>
@@ -4220,11 +4649,19 @@
       <c r="H61" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I61" s="40"/>
+      <c r="I61" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J61" s="40"/>
-      <c r="K61" s="40"/>
-      <c r="L61" s="40"/>
-      <c r="M61" s="40"/>
+      <c r="K61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M61" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N61" s="40"/>
       <c r="O61" s="40"/>
       <c r="P61" s="40"/>
@@ -4260,7 +4697,7 @@
       </c>
       <c r="F62" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G62" s="38" t="s">
         <v>20</v>
@@ -4268,11 +4705,19 @@
       <c r="H62" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I62" s="40"/>
+      <c r="I62" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J62" s="40"/>
-      <c r="K62" s="40"/>
-      <c r="L62" s="40"/>
-      <c r="M62" s="40"/>
+      <c r="K62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N62" s="40"/>
       <c r="O62" s="40"/>
       <c r="P62" s="40"/>
@@ -4304,11 +4749,11 @@
       </c>
       <c r="E63" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G63" s="38" t="s">
         <v>21</v>
@@ -4316,11 +4761,19 @@
       <c r="H63" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I63" s="40"/>
+      <c r="I63" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J63" s="40"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="40"/>
+      <c r="K63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M63" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N63" s="40"/>
       <c r="O63" s="40"/>
       <c r="P63" s="40"/>
@@ -4352,11 +4805,11 @@
       </c>
       <c r="E64" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G64" s="38" t="s">
         <v>21</v>
@@ -4364,11 +4817,19 @@
       <c r="H64" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I64" s="40"/>
+      <c r="I64" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J64" s="40"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="40"/>
-      <c r="M64" s="40"/>
+      <c r="K64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L64" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N64" s="40"/>
       <c r="O64" s="40"/>
       <c r="P64" s="40"/>
@@ -4404,7 +4865,7 @@
       </c>
       <c r="F65" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G65" s="38" t="s">
         <v>21</v>
@@ -4412,11 +4873,19 @@
       <c r="H65" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I65" s="40"/>
+      <c r="I65" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J65" s="40"/>
-      <c r="K65" s="40"/>
-      <c r="L65" s="40"/>
-      <c r="M65" s="40"/>
+      <c r="K65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M65" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N65" s="40"/>
       <c r="O65" s="40"/>
       <c r="P65" s="40"/>
@@ -4448,11 +4917,11 @@
       </c>
       <c r="E66" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F66" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" s="38" t="s">
         <v>20</v>
@@ -4460,11 +4929,19 @@
       <c r="H66" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I66" s="40"/>
+      <c r="I66" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J66" s="40"/>
-      <c r="K66" s="40"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="40"/>
+      <c r="K66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N66" s="40"/>
       <c r="O66" s="40"/>
       <c r="P66" s="40"/>
@@ -4496,11 +4973,11 @@
       </c>
       <c r="E67" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G67" s="38" t="s">
         <v>20</v>
@@ -4508,11 +4985,19 @@
       <c r="H67" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I67" s="40"/>
+      <c r="I67" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J67" s="40"/>
-      <c r="K67" s="40"/>
-      <c r="L67" s="40"/>
-      <c r="M67" s="40"/>
+      <c r="K67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N67" s="40"/>
       <c r="O67" s="40"/>
       <c r="P67" s="40"/>
@@ -4548,7 +5033,7 @@
       </c>
       <c r="F68" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>20</v>
@@ -4556,11 +5041,19 @@
       <c r="H68" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I68" s="40"/>
+      <c r="I68" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J68" s="40"/>
-      <c r="K68" s="40"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="40"/>
+      <c r="K68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M68" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N68" s="40"/>
       <c r="O68" s="40"/>
       <c r="P68" s="40"/>
@@ -4596,7 +5089,7 @@
       </c>
       <c r="F69" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G69" s="38" t="s">
         <v>20</v>
@@ -4604,11 +5097,19 @@
       <c r="H69" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I69" s="40"/>
+      <c r="I69" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J69" s="40"/>
-      <c r="K69" s="40"/>
-      <c r="L69" s="40"/>
-      <c r="M69" s="40"/>
+      <c r="K69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M69" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N69" s="40"/>
       <c r="O69" s="40"/>
       <c r="P69" s="40"/>
@@ -4640,11 +5141,11 @@
       </c>
       <c r="E70" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G70" s="38" t="s">
         <v>20</v>
@@ -4652,11 +5153,19 @@
       <c r="H70" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I70" s="40"/>
+      <c r="I70" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J70" s="40"/>
-      <c r="K70" s="40"/>
-      <c r="L70" s="40"/>
-      <c r="M70" s="40"/>
+      <c r="K70" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M70" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N70" s="40"/>
       <c r="O70" s="40"/>
       <c r="P70" s="40"/>
@@ -4692,7 +5201,7 @@
       </c>
       <c r="F71" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G71" s="38" t="s">
         <v>20</v>
@@ -4700,11 +5209,19 @@
       <c r="H71" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I71" s="40"/>
+      <c r="I71" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J71" s="40"/>
-      <c r="K71" s="40"/>
-      <c r="L71" s="40"/>
-      <c r="M71" s="40"/>
+      <c r="K71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M71" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N71" s="40"/>
       <c r="O71" s="40"/>
       <c r="P71" s="40"/>
@@ -4736,23 +5253,31 @@
       </c>
       <c r="E72" s="28">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F72" s="37">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F72" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G72" s="38" t="s">
         <v>20</v>
       </c>
       <c r="H72" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I72" s="40"/>
+      <c r="I72" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J72" s="40"/>
-      <c r="K72" s="40"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="40"/>
+      <c r="K72" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N72" s="40"/>
       <c r="O72" s="40"/>
       <c r="P72" s="40"/>
@@ -4788,7 +5313,7 @@
       </c>
       <c r="F73" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G73" s="38" t="s">
         <v>20</v>
@@ -4796,11 +5321,19 @@
       <c r="H73" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I73" s="40"/>
+      <c r="I73" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J73" s="40"/>
-      <c r="K73" s="40"/>
-      <c r="L73" s="40"/>
-      <c r="M73" s="40"/>
+      <c r="K73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M73" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N73" s="40"/>
       <c r="O73" s="40"/>
       <c r="P73" s="40"/>
@@ -4832,11 +5365,11 @@
       </c>
       <c r="E74" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G74" s="38" t="s">
         <v>20</v>
@@ -4844,11 +5377,19 @@
       <c r="H74" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I74" s="40"/>
+      <c r="I74" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J74" s="40"/>
-      <c r="K74" s="40"/>
-      <c r="L74" s="40"/>
-      <c r="M74" s="40"/>
+      <c r="K74" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M74" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N74" s="40"/>
       <c r="O74" s="40"/>
       <c r="P74" s="40"/>
@@ -4880,11 +5421,11 @@
       </c>
       <c r="E75" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G75" s="38" t="s">
         <v>21</v>
@@ -4892,11 +5433,19 @@
       <c r="H75" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I75" s="40"/>
+      <c r="I75" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J75" s="40"/>
-      <c r="K75" s="40"/>
-      <c r="L75" s="40"/>
-      <c r="M75" s="40"/>
+      <c r="K75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L75" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N75" s="40"/>
       <c r="O75" s="40"/>
       <c r="P75" s="40"/>
@@ -4928,11 +5477,11 @@
       </c>
       <c r="E76" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G76" s="38" t="s">
         <v>21</v>
@@ -4940,11 +5489,19 @@
       <c r="H76" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I76" s="40"/>
+      <c r="I76" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
+      <c r="K76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M76" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N76" s="40"/>
       <c r="O76" s="40"/>
       <c r="P76" s="40"/>
@@ -4976,7 +5533,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G77" s="42"/>
+      <c r="G77" s="38"/>
       <c r="H77" s="40"/>
       <c r="I77" s="40"/>
       <c r="J77" s="40"/>
@@ -5014,7 +5571,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G78" s="43"/>
+      <c r="G78" s="42"/>
       <c r="H78" s="41"/>
       <c r="I78" s="41"/>
       <c r="J78" s="41"/>
@@ -5052,7 +5609,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G79" s="43"/>
+      <c r="G79" s="42"/>
       <c r="H79" s="41"/>
       <c r="I79" s="41"/>
       <c r="J79" s="41"/>
@@ -5090,7 +5647,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G80" s="43"/>
+      <c r="G80" s="42"/>
       <c r="H80" s="41"/>
       <c r="I80" s="41"/>
       <c r="J80" s="41"/>
@@ -5128,7 +5685,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G81" s="43"/>
+      <c r="G81" s="42"/>
       <c r="H81" s="41"/>
       <c r="I81" s="41"/>
       <c r="J81" s="41"/>
@@ -5166,7 +5723,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G82" s="43"/>
+      <c r="G82" s="42"/>
       <c r="H82" s="41"/>
       <c r="I82" s="41"/>
       <c r="J82" s="41"/>
@@ -5204,7 +5761,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G83" s="43"/>
+      <c r="G83" s="42"/>
       <c r="H83" s="41"/>
       <c r="I83" s="41"/>
       <c r="J83" s="41"/>
@@ -5242,7 +5799,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G84" s="43"/>
+      <c r="G84" s="42"/>
       <c r="H84" s="41"/>
       <c r="I84" s="41"/>
       <c r="J84" s="41"/>
@@ -5269,8 +5826,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B85" s="44"/>
-      <c r="C85" s="44"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
       <c r="D85" s="28"/>
       <c r="E85" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5280,7 +5837,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G85" s="43"/>
+      <c r="G85" s="42"/>
       <c r="H85" s="41"/>
       <c r="I85" s="41"/>
       <c r="J85" s="41"/>
@@ -5307,8 +5864,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B86" s="44"/>
-      <c r="C86" s="44"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
       <c r="D86" s="28"/>
       <c r="E86" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5318,7 +5875,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G86" s="43"/>
+      <c r="G86" s="42"/>
       <c r="H86" s="41"/>
       <c r="I86" s="41"/>
       <c r="J86" s="41"/>
@@ -5345,8 +5902,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B87" s="44"/>
-      <c r="C87" s="44"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
       <c r="D87" s="28"/>
       <c r="E87" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5356,7 +5913,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G87" s="43"/>
+      <c r="G87" s="42"/>
       <c r="H87" s="41"/>
       <c r="I87" s="41"/>
       <c r="J87" s="41"/>
@@ -5383,8 +5940,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
       <c r="D88" s="28"/>
       <c r="E88" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5394,7 +5951,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G88" s="43"/>
+      <c r="G88" s="42"/>
       <c r="H88" s="41"/>
       <c r="I88" s="41"/>
       <c r="J88" s="41"/>
@@ -5421,8 +5978,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B89" s="44"/>
-      <c r="C89" s="44"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
       <c r="D89" s="28"/>
       <c r="E89" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5432,7 +5989,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G89" s="43"/>
+      <c r="G89" s="42"/>
       <c r="H89" s="41"/>
       <c r="I89" s="41"/>
       <c r="J89" s="41"/>
@@ -5459,8 +6016,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B90" s="44"/>
-      <c r="C90" s="44"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
       <c r="D90" s="28"/>
       <c r="E90" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5470,7 +6027,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G90" s="43"/>
+      <c r="G90" s="42"/>
       <c r="H90" s="41"/>
       <c r="I90" s="41"/>
       <c r="J90" s="41"/>
@@ -5497,8 +6054,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B91" s="44"/>
-      <c r="C91" s="44"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
       <c r="D91" s="28"/>
       <c r="E91" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5508,7 +6065,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G91" s="43"/>
+      <c r="G91" s="42"/>
       <c r="H91" s="41"/>
       <c r="I91" s="41"/>
       <c r="J91" s="41"/>
@@ -5535,8 +6092,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B92" s="44"/>
-      <c r="C92" s="44"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
       <c r="D92" s="28"/>
       <c r="E92" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5546,7 +6103,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G92" s="43"/>
+      <c r="G92" s="42"/>
       <c r="H92" s="41"/>
       <c r="I92" s="41"/>
       <c r="J92" s="41"/>
@@ -5573,8 +6130,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B93" s="44"/>
-      <c r="C93" s="44"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
       <c r="D93" s="28"/>
       <c r="E93" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5584,7 +6141,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G93" s="43"/>
+      <c r="G93" s="42"/>
       <c r="H93" s="41"/>
       <c r="I93" s="41"/>
       <c r="J93" s="41"/>
@@ -5611,8 +6168,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B94" s="44"/>
-      <c r="C94" s="44"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
       <c r="D94" s="28"/>
       <c r="E94" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5622,7 +6179,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G94" s="43"/>
+      <c r="G94" s="42"/>
       <c r="H94" s="41"/>
       <c r="I94" s="41"/>
       <c r="J94" s="41"/>
@@ -5649,8 +6206,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B95" s="44"/>
-      <c r="C95" s="44"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
       <c r="D95" s="28"/>
       <c r="E95" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5660,7 +6217,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G95" s="43"/>
+      <c r="G95" s="42"/>
       <c r="H95" s="41"/>
       <c r="I95" s="41"/>
       <c r="J95" s="41"/>

--- a/attendance-files/SDM/SDM-M (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/SDM/SDM-M (ABCD) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="160">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F7" s="29">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>20</v>
@@ -1638,12 +1638,24 @@
       <c r="M7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
+      <c r="N7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="T7" s="32"/>
       <c r="U7" s="32"/>
       <c r="V7" s="32"/>
@@ -1669,11 +1681,11 @@
       </c>
       <c r="E8" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>20</v>
@@ -1694,12 +1706,24 @@
       <c r="M8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
+      <c r="N8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T8" s="40"/>
       <c r="U8" s="40"/>
       <c r="V8" s="40"/>
@@ -1725,11 +1749,11 @@
       </c>
       <c r="E9" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>20</v>
@@ -1750,12 +1774,24 @@
       <c r="M9" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
+      <c r="N9" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="T9" s="40"/>
       <c r="U9" s="40"/>
       <c r="V9" s="40"/>
@@ -1785,7 +1821,7 @@
       </c>
       <c r="F10" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>20</v>
@@ -1806,12 +1842,24 @@
       <c r="M10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
+      <c r="N10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T10" s="40"/>
       <c r="U10" s="40"/>
       <c r="V10" s="40"/>
@@ -1837,11 +1885,11 @@
       </c>
       <c r="E11" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>21</v>
@@ -1862,12 +1910,24 @@
       <c r="M11" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
+      <c r="N11" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T11" s="40"/>
       <c r="U11" s="40"/>
       <c r="V11" s="40"/>
@@ -1893,11 +1953,11 @@
       </c>
       <c r="E12" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>21</v>
@@ -1918,12 +1978,24 @@
       <c r="M12" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
+      <c r="N12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T12" s="40"/>
       <c r="U12" s="40"/>
       <c r="V12" s="40"/>
@@ -1949,11 +2021,11 @@
       </c>
       <c r="E13" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G13" s="38" t="s">
         <v>20</v>
@@ -1974,12 +2046,24 @@
       <c r="M13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
+      <c r="N13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T13" s="40"/>
       <c r="U13" s="40"/>
       <c r="V13" s="40"/>
@@ -2009,7 +2093,7 @@
       </c>
       <c r="F14" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>21</v>
@@ -2030,12 +2114,24 @@
       <c r="M14" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
+      <c r="N14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S14" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T14" s="40"/>
       <c r="U14" s="40"/>
       <c r="V14" s="40"/>
@@ -2061,11 +2157,11 @@
       </c>
       <c r="E15" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>20</v>
@@ -2086,12 +2182,24 @@
       <c r="M15" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
+      <c r="N15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T15" s="40"/>
       <c r="U15" s="40"/>
       <c r="V15" s="40"/>
@@ -2121,7 +2229,7 @@
       </c>
       <c r="F16" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>20</v>
@@ -2142,12 +2250,24 @@
       <c r="M16" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
+      <c r="N16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T16" s="40"/>
       <c r="U16" s="40"/>
       <c r="V16" s="40"/>
@@ -2173,11 +2293,11 @@
       </c>
       <c r="E17" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>21</v>
@@ -2198,12 +2318,24 @@
       <c r="M17" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
+      <c r="N17" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T17" s="40"/>
       <c r="U17" s="40"/>
       <c r="V17" s="40"/>
@@ -2229,11 +2361,11 @@
       </c>
       <c r="E18" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>20</v>
@@ -2254,12 +2386,24 @@
       <c r="M18" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
+      <c r="N18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="T18" s="40"/>
       <c r="U18" s="40"/>
       <c r="V18" s="40"/>
@@ -2285,11 +2429,11 @@
       </c>
       <c r="E19" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G19" s="38" t="s">
         <v>20</v>
@@ -2310,12 +2454,24 @@
       <c r="M19" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
+      <c r="N19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T19" s="40"/>
       <c r="U19" s="40"/>
       <c r="V19" s="40"/>
@@ -2345,7 +2501,7 @@
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G20" s="38" t="s">
         <v>20</v>
@@ -2366,12 +2522,24 @@
       <c r="M20" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
+      <c r="N20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T20" s="40"/>
       <c r="U20" s="40"/>
       <c r="V20" s="40"/>
@@ -2401,7 +2569,7 @@
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G21" s="38" t="s">
         <v>21</v>
@@ -2422,12 +2590,24 @@
       <c r="M21" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
+      <c r="N21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T21" s="40"/>
       <c r="U21" s="40"/>
       <c r="V21" s="40"/>
@@ -2457,7 +2637,7 @@
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>20</v>
@@ -2478,12 +2658,24 @@
       <c r="M22" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
+      <c r="N22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T22" s="40"/>
       <c r="U22" s="40"/>
       <c r="V22" s="40"/>
@@ -2513,7 +2705,7 @@
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G23" s="38" t="s">
         <v>20</v>
@@ -2534,12 +2726,24 @@
       <c r="M23" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
+      <c r="N23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T23" s="40"/>
       <c r="U23" s="40"/>
       <c r="V23" s="40"/>
@@ -2565,11 +2769,11 @@
       </c>
       <c r="E24" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G24" s="38" t="s">
         <v>20</v>
@@ -2590,12 +2794,24 @@
       <c r="M24" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
+      <c r="N24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S24" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="T24" s="40"/>
       <c r="U24" s="40"/>
       <c r="V24" s="40"/>
@@ -2621,11 +2837,11 @@
       </c>
       <c r="E25" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G25" s="38" t="s">
         <v>21</v>
@@ -2646,12 +2862,24 @@
       <c r="M25" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
+      <c r="N25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T25" s="40"/>
       <c r="U25" s="40"/>
       <c r="V25" s="40"/>
@@ -2681,7 +2909,7 @@
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>21</v>
@@ -2702,12 +2930,24 @@
       <c r="M26" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
+      <c r="N26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S26" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T26" s="40"/>
       <c r="U26" s="40"/>
       <c r="V26" s="40"/>
@@ -2737,7 +2977,7 @@
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G27" s="38" t="s">
         <v>21</v>
@@ -2758,12 +2998,24 @@
       <c r="M27" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
+      <c r="N27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S27" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T27" s="40"/>
       <c r="U27" s="40"/>
       <c r="V27" s="40"/>
@@ -2789,11 +3041,11 @@
       </c>
       <c r="E28" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G28" s="38" t="s">
         <v>20</v>
@@ -2814,12 +3066,24 @@
       <c r="M28" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
+      <c r="N28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T28" s="40"/>
       <c r="U28" s="40"/>
       <c r="V28" s="40"/>
@@ -2845,11 +3109,11 @@
       </c>
       <c r="E29" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G29" s="38" t="s">
         <v>21</v>
@@ -2870,12 +3134,24 @@
       <c r="M29" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
+      <c r="N29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="T29" s="40"/>
       <c r="U29" s="40"/>
       <c r="V29" s="40"/>
@@ -2905,7 +3181,7 @@
       </c>
       <c r="F30" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G30" s="38" t="s">
         <v>20</v>
@@ -2926,12 +3202,24 @@
       <c r="M30" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
+      <c r="N30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S30" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T30" s="40"/>
       <c r="U30" s="40"/>
       <c r="V30" s="40"/>
@@ -2961,7 +3249,7 @@
       </c>
       <c r="F31" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>20</v>
@@ -2982,12 +3270,24 @@
       <c r="M31" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
+      <c r="N31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S31" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T31" s="40"/>
       <c r="U31" s="40"/>
       <c r="V31" s="40"/>
@@ -3013,11 +3313,11 @@
       </c>
       <c r="E32" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G32" s="38" t="s">
         <v>20</v>
@@ -3038,12 +3338,24 @@
       <c r="M32" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
+      <c r="N32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S32" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T32" s="40"/>
       <c r="U32" s="40"/>
       <c r="V32" s="40"/>
@@ -3073,7 +3385,7 @@
       </c>
       <c r="F33" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G33" s="38" t="s">
         <v>20</v>
@@ -3094,12 +3406,24 @@
       <c r="M33" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
+      <c r="N33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S33" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T33" s="40"/>
       <c r="U33" s="40"/>
       <c r="V33" s="40"/>
@@ -3129,7 +3453,7 @@
       </c>
       <c r="F34" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G34" s="38" t="s">
         <v>20</v>
@@ -3150,12 +3474,24 @@
       <c r="M34" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
+      <c r="N34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S34" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T34" s="40"/>
       <c r="U34" s="40"/>
       <c r="V34" s="40"/>
@@ -3181,11 +3517,11 @@
       </c>
       <c r="E35" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G35" s="38" t="s">
         <v>20</v>
@@ -3206,12 +3542,24 @@
       <c r="M35" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
+      <c r="N35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S35" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T35" s="40"/>
       <c r="U35" s="40"/>
       <c r="V35" s="40"/>
@@ -3241,7 +3589,7 @@
       </c>
       <c r="F36" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G36" s="38" t="s">
         <v>21</v>
@@ -3262,12 +3610,24 @@
       <c r="M36" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
+      <c r="N36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S36" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T36" s="40"/>
       <c r="U36" s="40"/>
       <c r="V36" s="40"/>
@@ -3297,7 +3657,7 @@
       </c>
       <c r="F37" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G37" s="38" t="s">
         <v>20</v>
@@ -3318,12 +3678,24 @@
       <c r="M37" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
+      <c r="N37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S37" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T37" s="40"/>
       <c r="U37" s="40"/>
       <c r="V37" s="40"/>
@@ -3349,11 +3721,11 @@
       </c>
       <c r="E38" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G38" s="38" t="s">
         <v>21</v>
@@ -3374,12 +3746,24 @@
       <c r="M38" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
+      <c r="N38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q38" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S38" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T38" s="40"/>
       <c r="U38" s="40"/>
       <c r="V38" s="40"/>
@@ -3409,7 +3793,7 @@
       </c>
       <c r="F39" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G39" s="38" t="s">
         <v>21</v>
@@ -3430,12 +3814,24 @@
       <c r="M39" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
+      <c r="N39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S39" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T39" s="40"/>
       <c r="U39" s="40"/>
       <c r="V39" s="40"/>
@@ -3461,11 +3857,11 @@
       </c>
       <c r="E40" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G40" s="38" t="s">
         <v>20</v>
@@ -3486,12 +3882,24 @@
       <c r="M40" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
+      <c r="N40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q40" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S40" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T40" s="40"/>
       <c r="U40" s="40"/>
       <c r="V40" s="40"/>
@@ -3517,11 +3925,11 @@
       </c>
       <c r="E41" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F41" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G41" s="38" t="s">
         <v>21</v>
@@ -3542,12 +3950,24 @@
       <c r="M41" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
+      <c r="N41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S41" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T41" s="40"/>
       <c r="U41" s="40"/>
       <c r="V41" s="40"/>
@@ -3573,11 +3993,11 @@
       </c>
       <c r="E42" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G42" s="38" t="s">
         <v>21</v>
@@ -3598,12 +4018,24 @@
       <c r="M42" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="40"/>
+      <c r="N42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S42" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T42" s="40"/>
       <c r="U42" s="40"/>
       <c r="V42" s="40"/>
@@ -3633,7 +4065,7 @@
       </c>
       <c r="F43" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G43" s="38" t="s">
         <v>20</v>
@@ -3654,12 +4086,24 @@
       <c r="M43" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="40"/>
+      <c r="N43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S43" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T43" s="40"/>
       <c r="U43" s="40"/>
       <c r="V43" s="40"/>
@@ -3685,11 +4129,11 @@
       </c>
       <c r="E44" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G44" s="38" t="s">
         <v>21</v>
@@ -3710,12 +4154,24 @@
       <c r="M44" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="40"/>
+      <c r="N44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O44" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S44" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T44" s="40"/>
       <c r="U44" s="40"/>
       <c r="V44" s="40"/>
@@ -3745,7 +4201,7 @@
       </c>
       <c r="F45" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>21</v>
@@ -3766,12 +4222,24 @@
       <c r="M45" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="40"/>
+      <c r="N45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S45" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T45" s="40"/>
       <c r="U45" s="40"/>
       <c r="V45" s="40"/>
@@ -3801,7 +4269,7 @@
       </c>
       <c r="F46" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G46" s="38" t="s">
         <v>20</v>
@@ -3822,12 +4290,24 @@
       <c r="M46" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="40"/>
-      <c r="R46" s="40"/>
-      <c r="S46" s="40"/>
+      <c r="N46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S46" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T46" s="40"/>
       <c r="U46" s="40"/>
       <c r="V46" s="40"/>
@@ -3853,11 +4333,11 @@
       </c>
       <c r="E47" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F47" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G47" s="38" t="s">
         <v>20</v>
@@ -3878,12 +4358,24 @@
       <c r="M47" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
+      <c r="N47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S47" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="T47" s="40"/>
       <c r="U47" s="40"/>
       <c r="V47" s="40"/>
@@ -3909,11 +4401,11 @@
       </c>
       <c r="E48" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F48" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G48" s="38" t="s">
         <v>20</v>
@@ -3934,12 +4426,24 @@
       <c r="M48" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
+      <c r="N48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O48" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R48" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S48" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T48" s="40"/>
       <c r="U48" s="40"/>
       <c r="V48" s="40"/>
@@ -3965,11 +4469,11 @@
       </c>
       <c r="E49" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F49" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G49" s="38" t="s">
         <v>20</v>
@@ -3990,12 +4494,24 @@
       <c r="M49" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="40"/>
+      <c r="N49" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R49" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S49" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T49" s="40"/>
       <c r="U49" s="40"/>
       <c r="V49" s="40"/>
@@ -4021,11 +4537,11 @@
       </c>
       <c r="E50" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F50" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G50" s="38" t="s">
         <v>20</v>
@@ -4046,12 +4562,24 @@
       <c r="M50" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="40"/>
+      <c r="N50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O50" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S50" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T50" s="40"/>
       <c r="U50" s="40"/>
       <c r="V50" s="40"/>
@@ -4081,7 +4609,7 @@
       </c>
       <c r="F51" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G51" s="38" t="s">
         <v>20</v>
@@ -4102,12 +4630,24 @@
       <c r="M51" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="40"/>
+      <c r="N51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S51" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T51" s="40"/>
       <c r="U51" s="40"/>
       <c r="V51" s="40"/>
@@ -4133,11 +4673,11 @@
       </c>
       <c r="E52" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F52" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G52" s="38" t="s">
         <v>21</v>
@@ -4158,12 +4698,24 @@
       <c r="M52" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
+      <c r="N52" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S52" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T52" s="40"/>
       <c r="U52" s="40"/>
       <c r="V52" s="40"/>
@@ -4189,11 +4741,11 @@
       </c>
       <c r="E53" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G53" s="38" t="s">
         <v>20</v>
@@ -4214,12 +4766,24 @@
       <c r="M53" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="40"/>
+      <c r="N53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P53" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S53" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T53" s="40"/>
       <c r="U53" s="40"/>
       <c r="V53" s="40"/>
@@ -4249,7 +4813,7 @@
       </c>
       <c r="F54" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G54" s="38" t="s">
         <v>20</v>
@@ -4270,12 +4834,24 @@
       <c r="M54" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="40"/>
+      <c r="N54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S54" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T54" s="40"/>
       <c r="U54" s="40"/>
       <c r="V54" s="40"/>
@@ -4301,11 +4877,11 @@
       </c>
       <c r="E55" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F55" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G55" s="38" t="s">
         <v>20</v>
@@ -4326,12 +4902,24 @@
       <c r="M55" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="40"/>
+      <c r="N55" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S55" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T55" s="40"/>
       <c r="U55" s="40"/>
       <c r="V55" s="40"/>
@@ -4357,11 +4945,11 @@
       </c>
       <c r="E56" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G56" s="38" t="s">
         <v>20</v>
@@ -4382,12 +4970,24 @@
       <c r="M56" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="40"/>
+      <c r="N56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R56" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S56" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T56" s="40"/>
       <c r="U56" s="40"/>
       <c r="V56" s="40"/>
@@ -4413,11 +5013,11 @@
       </c>
       <c r="E57" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>20</v>
@@ -4438,12 +5038,24 @@
       <c r="M57" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="40"/>
-      <c r="S57" s="40"/>
+      <c r="N57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S57" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T57" s="40"/>
       <c r="U57" s="40"/>
       <c r="V57" s="40"/>
@@ -4473,7 +5085,7 @@
       </c>
       <c r="F58" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>20</v>
@@ -4494,12 +5106,24 @@
       <c r="M58" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="40"/>
+      <c r="N58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S58" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T58" s="40"/>
       <c r="U58" s="40"/>
       <c r="V58" s="40"/>
@@ -4525,11 +5149,11 @@
       </c>
       <c r="E59" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F59" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G59" s="38" t="s">
         <v>20</v>
@@ -4550,12 +5174,24 @@
       <c r="M59" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="40"/>
-      <c r="R59" s="40"/>
-      <c r="S59" s="40"/>
+      <c r="N59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O59" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S59" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T59" s="40"/>
       <c r="U59" s="40"/>
       <c r="V59" s="40"/>
@@ -4585,7 +5221,7 @@
       </c>
       <c r="F60" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G60" s="38" t="s">
         <v>21</v>
@@ -4606,12 +5242,24 @@
       <c r="M60" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="40"/>
+      <c r="N60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S60" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T60" s="40"/>
       <c r="U60" s="40"/>
       <c r="V60" s="40"/>
@@ -4637,11 +5285,11 @@
       </c>
       <c r="E61" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F61" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G61" s="38" t="s">
         <v>20</v>
@@ -4662,12 +5310,24 @@
       <c r="M61" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="40"/>
+      <c r="N61" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R61" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S61" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T61" s="40"/>
       <c r="U61" s="40"/>
       <c r="V61" s="40"/>
@@ -4697,7 +5357,7 @@
       </c>
       <c r="F62" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G62" s="38" t="s">
         <v>20</v>
@@ -4718,12 +5378,24 @@
       <c r="M62" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N62" s="40"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="40"/>
-      <c r="R62" s="40"/>
-      <c r="S62" s="40"/>
+      <c r="N62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S62" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T62" s="40"/>
       <c r="U62" s="40"/>
       <c r="V62" s="40"/>
@@ -4749,11 +5421,11 @@
       </c>
       <c r="E63" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G63" s="38" t="s">
         <v>21</v>
@@ -4774,12 +5446,24 @@
       <c r="M63" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N63" s="40"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="40"/>
+      <c r="N63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R63" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S63" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T63" s="40"/>
       <c r="U63" s="40"/>
       <c r="V63" s="40"/>
@@ -4805,11 +5489,11 @@
       </c>
       <c r="E64" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F64" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G64" s="38" t="s">
         <v>21</v>
@@ -4830,12 +5514,24 @@
       <c r="M64" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N64" s="40"/>
-      <c r="O64" s="40"/>
-      <c r="P64" s="40"/>
-      <c r="Q64" s="40"/>
-      <c r="R64" s="40"/>
-      <c r="S64" s="40"/>
+      <c r="N64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O64" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S64" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="T64" s="40"/>
       <c r="U64" s="40"/>
       <c r="V64" s="40"/>
@@ -4861,11 +5557,11 @@
       </c>
       <c r="E65" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G65" s="38" t="s">
         <v>21</v>
@@ -4886,12 +5582,24 @@
       <c r="M65" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N65" s="40"/>
-      <c r="O65" s="40"/>
-      <c r="P65" s="40"/>
-      <c r="Q65" s="40"/>
-      <c r="R65" s="40"/>
-      <c r="S65" s="40"/>
+      <c r="N65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O65" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S65" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T65" s="40"/>
       <c r="U65" s="40"/>
       <c r="V65" s="40"/>
@@ -4917,11 +5625,11 @@
       </c>
       <c r="E66" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F66" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G66" s="38" t="s">
         <v>20</v>
@@ -4942,12 +5650,24 @@
       <c r="M66" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N66" s="40"/>
-      <c r="O66" s="40"/>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="40"/>
-      <c r="R66" s="40"/>
-      <c r="S66" s="40"/>
+      <c r="N66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R66" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S66" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T66" s="40"/>
       <c r="U66" s="40"/>
       <c r="V66" s="40"/>
@@ -4973,11 +5693,11 @@
       </c>
       <c r="E67" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F67" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G67" s="38" t="s">
         <v>20</v>
@@ -4998,12 +5718,24 @@
       <c r="M67" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N67" s="40"/>
-      <c r="O67" s="40"/>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="40"/>
-      <c r="R67" s="40"/>
-      <c r="S67" s="40"/>
+      <c r="N67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q67" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S67" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T67" s="40"/>
       <c r="U67" s="40"/>
       <c r="V67" s="40"/>
@@ -5029,11 +5761,11 @@
       </c>
       <c r="E68" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>20</v>
@@ -5054,12 +5786,24 @@
       <c r="M68" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N68" s="40"/>
-      <c r="O68" s="40"/>
-      <c r="P68" s="40"/>
-      <c r="Q68" s="40"/>
-      <c r="R68" s="40"/>
-      <c r="S68" s="40"/>
+      <c r="N68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R68" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S68" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T68" s="40"/>
       <c r="U68" s="40"/>
       <c r="V68" s="40"/>
@@ -5089,7 +5833,7 @@
       </c>
       <c r="F69" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G69" s="38" t="s">
         <v>20</v>
@@ -5110,12 +5854,24 @@
       <c r="M69" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N69" s="40"/>
-      <c r="O69" s="40"/>
-      <c r="P69" s="40"/>
-      <c r="Q69" s="40"/>
-      <c r="R69" s="40"/>
-      <c r="S69" s="40"/>
+      <c r="N69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S69" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T69" s="40"/>
       <c r="U69" s="40"/>
       <c r="V69" s="40"/>
@@ -5145,7 +5901,7 @@
       </c>
       <c r="F70" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G70" s="38" t="s">
         <v>20</v>
@@ -5166,12 +5922,24 @@
       <c r="M70" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N70" s="40"/>
-      <c r="O70" s="40"/>
-      <c r="P70" s="40"/>
-      <c r="Q70" s="40"/>
-      <c r="R70" s="40"/>
-      <c r="S70" s="40"/>
+      <c r="N70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S70" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T70" s="40"/>
       <c r="U70" s="40"/>
       <c r="V70" s="40"/>
@@ -5197,11 +5965,11 @@
       </c>
       <c r="E71" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G71" s="38" t="s">
         <v>20</v>
@@ -5222,12 +5990,24 @@
       <c r="M71" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N71" s="40"/>
-      <c r="O71" s="40"/>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="40"/>
-      <c r="R71" s="40"/>
-      <c r="S71" s="40"/>
+      <c r="N71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S71" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="T71" s="40"/>
       <c r="U71" s="40"/>
       <c r="V71" s="40"/>
@@ -5253,11 +6033,11 @@
       </c>
       <c r="E72" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F72" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G72" s="38" t="s">
         <v>20</v>
@@ -5278,12 +6058,24 @@
       <c r="M72" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N72" s="40"/>
-      <c r="O72" s="40"/>
-      <c r="P72" s="40"/>
-      <c r="Q72" s="40"/>
-      <c r="R72" s="40"/>
-      <c r="S72" s="40"/>
+      <c r="N72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q72" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R72" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S72" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T72" s="40"/>
       <c r="U72" s="40"/>
       <c r="V72" s="40"/>
@@ -5313,7 +6105,7 @@
       </c>
       <c r="F73" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G73" s="38" t="s">
         <v>20</v>
@@ -5334,12 +6126,24 @@
       <c r="M73" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N73" s="40"/>
-      <c r="O73" s="40"/>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="40"/>
-      <c r="R73" s="40"/>
-      <c r="S73" s="40"/>
+      <c r="N73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S73" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T73" s="40"/>
       <c r="U73" s="40"/>
       <c r="V73" s="40"/>
@@ -5365,11 +6169,11 @@
       </c>
       <c r="E74" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G74" s="38" t="s">
         <v>20</v>
@@ -5390,12 +6194,24 @@
       <c r="M74" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N74" s="40"/>
-      <c r="O74" s="40"/>
-      <c r="P74" s="40"/>
-      <c r="Q74" s="40"/>
-      <c r="R74" s="40"/>
-      <c r="S74" s="40"/>
+      <c r="N74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S74" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="T74" s="40"/>
       <c r="U74" s="40"/>
       <c r="V74" s="40"/>
@@ -5425,7 +6241,7 @@
       </c>
       <c r="F75" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G75" s="38" t="s">
         <v>21</v>
@@ -5446,12 +6262,24 @@
       <c r="M75" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N75" s="40"/>
-      <c r="O75" s="40"/>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="40"/>
-      <c r="R75" s="40"/>
-      <c r="S75" s="40"/>
+      <c r="N75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S75" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T75" s="40"/>
       <c r="U75" s="40"/>
       <c r="V75" s="40"/>
@@ -5477,11 +6305,11 @@
       </c>
       <c r="E76" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G76" s="38" t="s">
         <v>21</v>
@@ -5502,12 +6330,24 @@
       <c r="M76" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N76" s="40"/>
-      <c r="O76" s="40"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="40"/>
+      <c r="N76" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S76" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T76" s="40"/>
       <c r="U76" s="40"/>
       <c r="V76" s="40"/>
@@ -5545,7 +6385,7 @@
       <c r="P77" s="40"/>
       <c r="Q77" s="40"/>
       <c r="R77" s="40"/>
-      <c r="S77" s="40"/>
+      <c r="S77" s="39"/>
       <c r="T77" s="40"/>
       <c r="U77" s="40"/>
       <c r="V77" s="40"/>

--- a/attendance-files/SDM/SDM-M (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/SDM/SDM-M (ABCD) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="160">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -878,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -993,6 +993,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
@@ -1613,11 +1616,11 @@
       </c>
       <c r="E7" s="28">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="29">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>20</v>
@@ -1625,37 +1628,17 @@
       <c r="H7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I7" s="32"/>
       <c r="J7" s="32"/>
-      <c r="K7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="R7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="S7" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
       <c r="T7" s="32"/>
       <c r="U7" s="32"/>
       <c r="V7" s="32"/>
@@ -1681,11 +1664,11 @@
       </c>
       <c r="E8" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>20</v>
@@ -1693,37 +1676,17 @@
       <c r="H8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I8" s="40"/>
       <c r="J8" s="40"/>
-      <c r="K8" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q8" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="R8" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="S8" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
       <c r="T8" s="40"/>
       <c r="U8" s="40"/>
       <c r="V8" s="40"/>
@@ -1749,11 +1712,11 @@
       </c>
       <c r="E9" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>20</v>
@@ -1761,37 +1724,17 @@
       <c r="H9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I9" s="40"/>
       <c r="J9" s="40"/>
-      <c r="K9" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P9" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="R9" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
       <c r="T9" s="40"/>
       <c r="U9" s="40"/>
       <c r="V9" s="40"/>
@@ -1817,11 +1760,11 @@
       </c>
       <c r="E10" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>20</v>
@@ -1829,37 +1772,17 @@
       <c r="H10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I10" s="40"/>
       <c r="J10" s="40"/>
-      <c r="K10" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q10" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="R10" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S10" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
       <c r="T10" s="40"/>
       <c r="U10" s="40"/>
       <c r="V10" s="40"/>
@@ -1885,11 +1808,11 @@
       </c>
       <c r="E11" s="28">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="37">
+        <f t="shared" si="2"/>
         <v>2</v>
-      </c>
-      <c r="F11" s="37">
-        <f t="shared" si="2"/>
-        <v>10</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>21</v>
@@ -1897,37 +1820,17 @@
       <c r="H11" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I11" s="40"/>
       <c r="J11" s="40"/>
-      <c r="K11" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q11" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="R11" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S11" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
       <c r="T11" s="40"/>
       <c r="U11" s="40"/>
       <c r="V11" s="40"/>
@@ -1953,11 +1856,11 @@
       </c>
       <c r="E12" s="28">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="37">
+        <f t="shared" si="2"/>
         <v>2</v>
-      </c>
-      <c r="F12" s="37">
-        <f t="shared" si="2"/>
-        <v>10</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>21</v>
@@ -1965,37 +1868,17 @@
       <c r="H12" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I12" s="40"/>
       <c r="J12" s="40"/>
-      <c r="K12" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="S12" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
       <c r="T12" s="40"/>
       <c r="U12" s="40"/>
       <c r="V12" s="40"/>
@@ -2021,11 +1904,11 @@
       </c>
       <c r="E13" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G13" s="38" t="s">
         <v>20</v>
@@ -2033,37 +1916,17 @@
       <c r="H13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I13" s="40"/>
       <c r="J13" s="40"/>
-      <c r="K13" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O13" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S13" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
       <c r="T13" s="40"/>
       <c r="U13" s="40"/>
       <c r="V13" s="40"/>
@@ -2093,7 +1956,7 @@
       </c>
       <c r="F14" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>21</v>
@@ -2101,37 +1964,17 @@
       <c r="H14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I14" s="40"/>
       <c r="J14" s="40"/>
-      <c r="K14" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S14" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
       <c r="T14" s="40"/>
       <c r="U14" s="40"/>
       <c r="V14" s="40"/>
@@ -2157,11 +2000,11 @@
       </c>
       <c r="E15" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>20</v>
@@ -2169,37 +2012,17 @@
       <c r="H15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I15" s="40"/>
       <c r="J15" s="40"/>
-      <c r="K15" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S15" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
       <c r="T15" s="40"/>
       <c r="U15" s="40"/>
       <c r="V15" s="40"/>
@@ -2225,11 +2048,11 @@
       </c>
       <c r="E16" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>20</v>
@@ -2237,37 +2060,17 @@
       <c r="H16" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I16" s="40"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O16" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P16" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q16" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R16" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S16" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
       <c r="T16" s="40"/>
       <c r="U16" s="40"/>
       <c r="V16" s="40"/>
@@ -2293,11 +2096,11 @@
       </c>
       <c r="E17" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F17" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>21</v>
@@ -2305,37 +2108,17 @@
       <c r="H17" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I17" s="40"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S17" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
       <c r="T17" s="40"/>
       <c r="U17" s="40"/>
       <c r="V17" s="40"/>
@@ -2361,11 +2144,11 @@
       </c>
       <c r="E18" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>20</v>
@@ -2373,37 +2156,17 @@
       <c r="H18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I18" s="40"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
       <c r="T18" s="40"/>
       <c r="U18" s="40"/>
       <c r="V18" s="40"/>
@@ -2429,11 +2192,11 @@
       </c>
       <c r="E19" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G19" s="38" t="s">
         <v>20</v>
@@ -2441,37 +2204,17 @@
       <c r="H19" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I19" s="40"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O19" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q19" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R19" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S19" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
       <c r="T19" s="40"/>
       <c r="U19" s="40"/>
       <c r="V19" s="40"/>
@@ -2501,7 +2244,7 @@
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G20" s="38" t="s">
         <v>20</v>
@@ -2509,37 +2252,17 @@
       <c r="H20" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I20" s="40"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S20" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
       <c r="T20" s="40"/>
       <c r="U20" s="40"/>
       <c r="V20" s="40"/>
@@ -2569,7 +2292,7 @@
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G21" s="38" t="s">
         <v>21</v>
@@ -2577,37 +2300,17 @@
       <c r="H21" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I21" s="40"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S21" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
       <c r="T21" s="40"/>
       <c r="U21" s="40"/>
       <c r="V21" s="40"/>
@@ -2633,11 +2336,11 @@
       </c>
       <c r="E22" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>20</v>
@@ -2645,37 +2348,17 @@
       <c r="H22" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I22" s="40"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S22" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
       <c r="T22" s="40"/>
       <c r="U22" s="40"/>
       <c r="V22" s="40"/>
@@ -2705,7 +2388,7 @@
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G23" s="38" t="s">
         <v>20</v>
@@ -2713,37 +2396,17 @@
       <c r="H23" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I23" s="40"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S23" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
       <c r="T23" s="40"/>
       <c r="U23" s="40"/>
       <c r="V23" s="40"/>
@@ -2769,11 +2432,11 @@
       </c>
       <c r="E24" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G24" s="38" t="s">
         <v>20</v>
@@ -2781,37 +2444,17 @@
       <c r="H24" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I24" s="40"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S24" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
       <c r="T24" s="40"/>
       <c r="U24" s="40"/>
       <c r="V24" s="40"/>
@@ -2837,11 +2480,11 @@
       </c>
       <c r="E25" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G25" s="38" t="s">
         <v>21</v>
@@ -2849,37 +2492,17 @@
       <c r="H25" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I25" s="40"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N25" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O25" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P25" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R25" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S25" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
       <c r="T25" s="40"/>
       <c r="U25" s="40"/>
       <c r="V25" s="40"/>
@@ -2905,11 +2528,11 @@
       </c>
       <c r="E26" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>21</v>
@@ -2917,37 +2540,17 @@
       <c r="H26" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I26" s="40"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N26" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O26" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P26" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q26" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R26" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S26" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
       <c r="T26" s="40"/>
       <c r="U26" s="40"/>
       <c r="V26" s="40"/>
@@ -2973,11 +2576,11 @@
       </c>
       <c r="E27" s="28">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="37">
+        <f t="shared" si="2"/>
         <v>2</v>
-      </c>
-      <c r="F27" s="37">
-        <f t="shared" si="2"/>
-        <v>10</v>
       </c>
       <c r="G27" s="38" t="s">
         <v>21</v>
@@ -2985,37 +2588,17 @@
       <c r="H27" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I27" s="40"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N27" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O27" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P27" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q27" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R27" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S27" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
       <c r="T27" s="40"/>
       <c r="U27" s="40"/>
       <c r="V27" s="40"/>
@@ -3041,11 +2624,11 @@
       </c>
       <c r="E28" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G28" s="38" t="s">
         <v>20</v>
@@ -3053,37 +2636,17 @@
       <c r="H28" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I28" s="40"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P28" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S28" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
       <c r="T28" s="40"/>
       <c r="U28" s="40"/>
       <c r="V28" s="40"/>
@@ -3109,11 +2672,11 @@
       </c>
       <c r="E29" s="28">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="37">
+        <f t="shared" si="2"/>
         <v>2</v>
-      </c>
-      <c r="F29" s="37">
-        <f t="shared" si="2"/>
-        <v>10</v>
       </c>
       <c r="G29" s="38" t="s">
         <v>21</v>
@@ -3121,37 +2684,17 @@
       <c r="H29" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I29" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I29" s="40"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M29" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O29" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P29" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q29" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R29" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S29" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
       <c r="T29" s="40"/>
       <c r="U29" s="40"/>
       <c r="V29" s="40"/>
@@ -3181,7 +2724,7 @@
       </c>
       <c r="F30" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G30" s="38" t="s">
         <v>20</v>
@@ -3189,37 +2732,17 @@
       <c r="H30" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I30" s="40"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S30" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
       <c r="T30" s="40"/>
       <c r="U30" s="40"/>
       <c r="V30" s="40"/>
@@ -3249,7 +2772,7 @@
       </c>
       <c r="F31" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>20</v>
@@ -3257,37 +2780,17 @@
       <c r="H31" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I31" s="40"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O31" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P31" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q31" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R31" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S31" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
       <c r="T31" s="40"/>
       <c r="U31" s="40"/>
       <c r="V31" s="40"/>
@@ -3313,11 +2816,11 @@
       </c>
       <c r="E32" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G32" s="38" t="s">
         <v>20</v>
@@ -3325,37 +2828,17 @@
       <c r="H32" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I32" s="40"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O32" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S32" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
       <c r="T32" s="40"/>
       <c r="U32" s="40"/>
       <c r="V32" s="40"/>
@@ -3381,11 +2864,11 @@
       </c>
       <c r="E33" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G33" s="38" t="s">
         <v>20</v>
@@ -3393,37 +2876,17 @@
       <c r="H33" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I33" s="40"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M33" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S33" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
       <c r="T33" s="40"/>
       <c r="U33" s="40"/>
       <c r="V33" s="40"/>
@@ -3453,7 +2916,7 @@
       </c>
       <c r="F34" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G34" s="38" t="s">
         <v>20</v>
@@ -3461,37 +2924,17 @@
       <c r="H34" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I34" s="40"/>
       <c r="J34" s="40"/>
-      <c r="K34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S34" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
       <c r="T34" s="40"/>
       <c r="U34" s="40"/>
       <c r="V34" s="40"/>
@@ -3517,11 +2960,11 @@
       </c>
       <c r="E35" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G35" s="38" t="s">
         <v>20</v>
@@ -3529,37 +2972,17 @@
       <c r="H35" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I35" s="40"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M35" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O35" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P35" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q35" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R35" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S35" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
       <c r="T35" s="40"/>
       <c r="U35" s="40"/>
       <c r="V35" s="40"/>
@@ -3589,7 +3012,7 @@
       </c>
       <c r="F36" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G36" s="38" t="s">
         <v>21</v>
@@ -3597,37 +3020,17 @@
       <c r="H36" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I36" s="40"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M36" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N36" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O36" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P36" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q36" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R36" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S36" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
       <c r="T36" s="40"/>
       <c r="U36" s="40"/>
       <c r="V36" s="40"/>
@@ -3653,11 +3056,11 @@
       </c>
       <c r="E37" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G37" s="38" t="s">
         <v>20</v>
@@ -3665,37 +3068,17 @@
       <c r="H37" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I37" s="40"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M37" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N37" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O37" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P37" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q37" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R37" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S37" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
       <c r="T37" s="40"/>
       <c r="U37" s="40"/>
       <c r="V37" s="40"/>
@@ -3721,11 +3104,11 @@
       </c>
       <c r="E38" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G38" s="38" t="s">
         <v>21</v>
@@ -3733,37 +3116,17 @@
       <c r="H38" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I38" s="40"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M38" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N38" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O38" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P38" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q38" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R38" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S38" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
       <c r="T38" s="40"/>
       <c r="U38" s="40"/>
       <c r="V38" s="40"/>
@@ -3793,7 +3156,7 @@
       </c>
       <c r="F39" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G39" s="38" t="s">
         <v>21</v>
@@ -3801,37 +3164,17 @@
       <c r="H39" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I39" s="40"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M39" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N39" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O39" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P39" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q39" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R39" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S39" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
       <c r="T39" s="40"/>
       <c r="U39" s="40"/>
       <c r="V39" s="40"/>
@@ -3857,11 +3200,11 @@
       </c>
       <c r="E40" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G40" s="38" t="s">
         <v>20</v>
@@ -3869,37 +3212,17 @@
       <c r="H40" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I40" s="40"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L40" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M40" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N40" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O40" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P40" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q40" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R40" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S40" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="40"/>
       <c r="T40" s="40"/>
       <c r="U40" s="40"/>
       <c r="V40" s="40"/>
@@ -3925,11 +3248,11 @@
       </c>
       <c r="E41" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F41" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G41" s="38" t="s">
         <v>21</v>
@@ -3937,37 +3260,17 @@
       <c r="H41" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I41" s="40"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L41" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M41" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N41" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O41" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P41" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q41" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R41" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S41" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
       <c r="T41" s="40"/>
       <c r="U41" s="40"/>
       <c r="V41" s="40"/>
@@ -3993,11 +3296,11 @@
       </c>
       <c r="E42" s="28">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="37">
+        <f t="shared" si="2"/>
         <v>2</v>
-      </c>
-      <c r="F42" s="37">
-        <f t="shared" si="2"/>
-        <v>10</v>
       </c>
       <c r="G42" s="38" t="s">
         <v>21</v>
@@ -4005,37 +3308,17 @@
       <c r="H42" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I42" s="40"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L42" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M42" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N42" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O42" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P42" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q42" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R42" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="S42" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="40"/>
       <c r="T42" s="40"/>
       <c r="U42" s="40"/>
       <c r="V42" s="40"/>
@@ -4065,7 +3348,7 @@
       </c>
       <c r="F43" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G43" s="38" t="s">
         <v>20</v>
@@ -4073,37 +3356,17 @@
       <c r="H43" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I43" s="40"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L43" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M43" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N43" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O43" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P43" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q43" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R43" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S43" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="40"/>
       <c r="T43" s="40"/>
       <c r="U43" s="40"/>
       <c r="V43" s="40"/>
@@ -4129,11 +3392,11 @@
       </c>
       <c r="E44" s="28">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="37">
+        <f t="shared" si="2"/>
         <v>2</v>
-      </c>
-      <c r="F44" s="37">
-        <f t="shared" si="2"/>
-        <v>10</v>
       </c>
       <c r="G44" s="38" t="s">
         <v>21</v>
@@ -4141,37 +3404,17 @@
       <c r="H44" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I44" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I44" s="40"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L44" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M44" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N44" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O44" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P44" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q44" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R44" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S44" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="40"/>
       <c r="T44" s="40"/>
       <c r="U44" s="40"/>
       <c r="V44" s="40"/>
@@ -4201,7 +3444,7 @@
       </c>
       <c r="F45" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>21</v>
@@ -4209,37 +3452,17 @@
       <c r="H45" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I45" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I45" s="40"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S45" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
       <c r="T45" s="40"/>
       <c r="U45" s="40"/>
       <c r="V45" s="40"/>
@@ -4265,11 +3488,11 @@
       </c>
       <c r="E46" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F46" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G46" s="38" t="s">
         <v>20</v>
@@ -4277,37 +3500,17 @@
       <c r="H46" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I46" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I46" s="40"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L46" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M46" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N46" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O46" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P46" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q46" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R46" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S46" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="40"/>
+      <c r="S46" s="40"/>
       <c r="T46" s="40"/>
       <c r="U46" s="40"/>
       <c r="V46" s="40"/>
@@ -4333,11 +3536,11 @@
       </c>
       <c r="E47" s="28">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F47" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G47" s="38" t="s">
         <v>20</v>
@@ -4345,37 +3548,17 @@
       <c r="H47" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I47" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I47" s="40"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M47" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N47" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O47" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P47" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q47" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R47" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S47" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="40"/>
       <c r="T47" s="40"/>
       <c r="U47" s="40"/>
       <c r="V47" s="40"/>
@@ -4401,11 +3584,11 @@
       </c>
       <c r="E48" s="28">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F48" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G48" s="38" t="s">
         <v>20</v>
@@ -4413,37 +3596,17 @@
       <c r="H48" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I48" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="I48" s="40"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L48" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M48" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N48" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O48" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P48" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q48" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R48" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="S48" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="40"/>
+      <c r="S48" s="40"/>
       <c r="T48" s="40"/>
       <c r="U48" s="40"/>
       <c r="V48" s="40"/>
@@ -4469,11 +3632,11 @@
       </c>
       <c r="E49" s="28">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F49" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G49" s="38" t="s">
         <v>20</v>
@@ -4481,37 +3644,17 @@
       <c r="H49" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I49" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="I49" s="40"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L49" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M49" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N49" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O49" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P49" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q49" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R49" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="S49" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="40"/>
       <c r="T49" s="40"/>
       <c r="U49" s="40"/>
       <c r="V49" s="40"/>
@@ -4537,11 +3680,11 @@
       </c>
       <c r="E50" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F50" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G50" s="38" t="s">
         <v>20</v>
@@ -4549,37 +3692,17 @@
       <c r="H50" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="I50" s="40"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L50" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O50" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S50" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="40"/>
       <c r="T50" s="40"/>
       <c r="U50" s="40"/>
       <c r="V50" s="40"/>
@@ -4605,11 +3728,11 @@
       </c>
       <c r="E51" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G51" s="38" t="s">
         <v>20</v>
@@ -4617,37 +3740,17 @@
       <c r="H51" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I51" s="40"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M51" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S51" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="40"/>
       <c r="T51" s="40"/>
       <c r="U51" s="40"/>
       <c r="V51" s="40"/>
@@ -4673,11 +3776,11 @@
       </c>
       <c r="E52" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F52" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G52" s="38" t="s">
         <v>21</v>
@@ -4685,37 +3788,17 @@
       <c r="H52" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I52" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I52" s="40"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L52" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M52" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N52" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O52" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P52" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q52" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R52" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S52" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="40"/>
       <c r="T52" s="40"/>
       <c r="U52" s="40"/>
       <c r="V52" s="40"/>
@@ -4741,11 +3824,11 @@
       </c>
       <c r="E53" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G53" s="38" t="s">
         <v>20</v>
@@ -4753,37 +3836,17 @@
       <c r="H53" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I53" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I53" s="40"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L53" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M53" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N53" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O53" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P53" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q53" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R53" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S53" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="40"/>
       <c r="T53" s="40"/>
       <c r="U53" s="40"/>
       <c r="V53" s="40"/>
@@ -4809,11 +3872,11 @@
       </c>
       <c r="E54" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G54" s="38" t="s">
         <v>20</v>
@@ -4821,37 +3884,17 @@
       <c r="H54" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I54" s="40"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M54" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S54" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="40"/>
       <c r="T54" s="40"/>
       <c r="U54" s="40"/>
       <c r="V54" s="40"/>
@@ -4877,11 +3920,11 @@
       </c>
       <c r="E55" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F55" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G55" s="38" t="s">
         <v>20</v>
@@ -4889,37 +3932,17 @@
       <c r="H55" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I55" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I55" s="40"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L55" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M55" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N55" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O55" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P55" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q55" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R55" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S55" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="40"/>
+      <c r="S55" s="40"/>
       <c r="T55" s="40"/>
       <c r="U55" s="40"/>
       <c r="V55" s="40"/>
@@ -4945,11 +3968,11 @@
       </c>
       <c r="E56" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G56" s="38" t="s">
         <v>20</v>
@@ -4957,37 +3980,17 @@
       <c r="H56" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I56" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I56" s="40"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L56" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M56" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N56" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O56" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P56" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q56" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R56" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="S56" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="40"/>
+      <c r="S56" s="40"/>
       <c r="T56" s="40"/>
       <c r="U56" s="40"/>
       <c r="V56" s="40"/>
@@ -5013,11 +4016,11 @@
       </c>
       <c r="E57" s="28">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>20</v>
@@ -5025,37 +4028,17 @@
       <c r="H57" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I57" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I57" s="40"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L57" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M57" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N57" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O57" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P57" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q57" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R57" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S57" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="40"/>
+      <c r="S57" s="40"/>
       <c r="T57" s="40"/>
       <c r="U57" s="40"/>
       <c r="V57" s="40"/>
@@ -5081,11 +4064,11 @@
       </c>
       <c r="E58" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F58" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>20</v>
@@ -5093,37 +4076,17 @@
       <c r="H58" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I58" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="I58" s="40"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L58" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M58" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N58" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O58" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P58" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q58" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R58" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S58" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="40"/>
+      <c r="S58" s="40"/>
       <c r="T58" s="40"/>
       <c r="U58" s="40"/>
       <c r="V58" s="40"/>
@@ -5149,11 +4112,11 @@
       </c>
       <c r="E59" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F59" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G59" s="38" t="s">
         <v>20</v>
@@ -5161,37 +4124,17 @@
       <c r="H59" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I59" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I59" s="40"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L59" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M59" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N59" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O59" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P59" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q59" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R59" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S59" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="40"/>
+      <c r="R59" s="40"/>
+      <c r="S59" s="40"/>
       <c r="T59" s="40"/>
       <c r="U59" s="40"/>
       <c r="V59" s="40"/>
@@ -5217,11 +4160,11 @@
       </c>
       <c r="E60" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G60" s="38" t="s">
         <v>21</v>
@@ -5229,37 +4172,17 @@
       <c r="H60" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I60" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I60" s="40"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L60" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M60" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N60" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O60" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P60" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q60" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R60" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S60" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="40"/>
       <c r="T60" s="40"/>
       <c r="U60" s="40"/>
       <c r="V60" s="40"/>
@@ -5285,11 +4208,11 @@
       </c>
       <c r="E61" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F61" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G61" s="38" t="s">
         <v>20</v>
@@ -5297,37 +4220,17 @@
       <c r="H61" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I61" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I61" s="40"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L61" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M61" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N61" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O61" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P61" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q61" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R61" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S61" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
+      <c r="Q61" s="40"/>
+      <c r="R61" s="40"/>
+      <c r="S61" s="40"/>
       <c r="T61" s="40"/>
       <c r="U61" s="40"/>
       <c r="V61" s="40"/>
@@ -5357,7 +4260,7 @@
       </c>
       <c r="F62" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G62" s="38" t="s">
         <v>20</v>
@@ -5365,37 +4268,17 @@
       <c r="H62" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I62" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I62" s="40"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L62" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M62" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N62" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O62" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P62" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q62" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R62" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S62" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K62" s="40"/>
+      <c r="L62" s="40"/>
+      <c r="M62" s="40"/>
+      <c r="N62" s="40"/>
+      <c r="O62" s="40"/>
+      <c r="P62" s="40"/>
+      <c r="Q62" s="40"/>
+      <c r="R62" s="40"/>
+      <c r="S62" s="40"/>
       <c r="T62" s="40"/>
       <c r="U62" s="40"/>
       <c r="V62" s="40"/>
@@ -5421,11 +4304,11 @@
       </c>
       <c r="E63" s="28">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="37">
+        <f t="shared" si="2"/>
         <v>2</v>
-      </c>
-      <c r="F63" s="37">
-        <f t="shared" si="2"/>
-        <v>10</v>
       </c>
       <c r="G63" s="38" t="s">
         <v>21</v>
@@ -5433,37 +4316,17 @@
       <c r="H63" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I63" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I63" s="40"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L63" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M63" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N63" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O63" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P63" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q63" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R63" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="S63" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="40"/>
+      <c r="S63" s="40"/>
       <c r="T63" s="40"/>
       <c r="U63" s="40"/>
       <c r="V63" s="40"/>
@@ -5489,11 +4352,11 @@
       </c>
       <c r="E64" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F64" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G64" s="38" t="s">
         <v>21</v>
@@ -5501,37 +4364,17 @@
       <c r="H64" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I64" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I64" s="40"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L64" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O64" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S64" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="K64" s="40"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="40"/>
+      <c r="N64" s="40"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="40"/>
+      <c r="Q64" s="40"/>
+      <c r="R64" s="40"/>
+      <c r="S64" s="40"/>
       <c r="T64" s="40"/>
       <c r="U64" s="40"/>
       <c r="V64" s="40"/>
@@ -5557,11 +4400,11 @@
       </c>
       <c r="E65" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G65" s="38" t="s">
         <v>21</v>
@@ -5569,37 +4412,17 @@
       <c r="H65" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I65" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I65" s="40"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L65" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M65" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N65" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O65" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P65" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q65" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R65" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S65" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K65" s="40"/>
+      <c r="L65" s="40"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="40"/>
+      <c r="Q65" s="40"/>
+      <c r="R65" s="40"/>
+      <c r="S65" s="40"/>
       <c r="T65" s="40"/>
       <c r="U65" s="40"/>
       <c r="V65" s="40"/>
@@ -5625,11 +4448,11 @@
       </c>
       <c r="E66" s="28">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F66" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G66" s="38" t="s">
         <v>20</v>
@@ -5637,37 +4460,17 @@
       <c r="H66" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I66" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="I66" s="40"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L66" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M66" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N66" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O66" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P66" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q66" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R66" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="S66" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K66" s="40"/>
+      <c r="L66" s="40"/>
+      <c r="M66" s="40"/>
+      <c r="N66" s="40"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
+      <c r="Q66" s="40"/>
+      <c r="R66" s="40"/>
+      <c r="S66" s="40"/>
       <c r="T66" s="40"/>
       <c r="U66" s="40"/>
       <c r="V66" s="40"/>
@@ -5693,11 +4496,11 @@
       </c>
       <c r="E67" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F67" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G67" s="38" t="s">
         <v>20</v>
@@ -5705,37 +4508,17 @@
       <c r="H67" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I67" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I67" s="40"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L67" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M67" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N67" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O67" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P67" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q67" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R67" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S67" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K67" s="40"/>
+      <c r="L67" s="40"/>
+      <c r="M67" s="40"/>
+      <c r="N67" s="40"/>
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
+      <c r="Q67" s="40"/>
+      <c r="R67" s="40"/>
+      <c r="S67" s="40"/>
       <c r="T67" s="40"/>
       <c r="U67" s="40"/>
       <c r="V67" s="40"/>
@@ -5761,11 +4544,11 @@
       </c>
       <c r="E68" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>20</v>
@@ -5773,37 +4556,17 @@
       <c r="H68" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I68" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I68" s="40"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L68" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M68" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N68" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O68" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P68" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q68" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R68" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="S68" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K68" s="40"/>
+      <c r="L68" s="40"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
+      <c r="Q68" s="40"/>
+      <c r="R68" s="40"/>
+      <c r="S68" s="40"/>
       <c r="T68" s="40"/>
       <c r="U68" s="40"/>
       <c r="V68" s="40"/>
@@ -5833,7 +4596,7 @@
       </c>
       <c r="F69" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G69" s="38" t="s">
         <v>20</v>
@@ -5841,37 +4604,17 @@
       <c r="H69" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I69" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I69" s="40"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S69" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K69" s="40"/>
+      <c r="L69" s="40"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
+      <c r="Q69" s="40"/>
+      <c r="R69" s="40"/>
+      <c r="S69" s="40"/>
       <c r="T69" s="40"/>
       <c r="U69" s="40"/>
       <c r="V69" s="40"/>
@@ -5897,11 +4640,11 @@
       </c>
       <c r="E70" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G70" s="38" t="s">
         <v>20</v>
@@ -5909,37 +4652,17 @@
       <c r="H70" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I70" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I70" s="40"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L70" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M70" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N70" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O70" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P70" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q70" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R70" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S70" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K70" s="40"/>
+      <c r="L70" s="40"/>
+      <c r="M70" s="40"/>
+      <c r="N70" s="40"/>
+      <c r="O70" s="40"/>
+      <c r="P70" s="40"/>
+      <c r="Q70" s="40"/>
+      <c r="R70" s="40"/>
+      <c r="S70" s="40"/>
       <c r="T70" s="40"/>
       <c r="U70" s="40"/>
       <c r="V70" s="40"/>
@@ -5965,11 +4688,11 @@
       </c>
       <c r="E71" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G71" s="38" t="s">
         <v>20</v>
@@ -5977,37 +4700,17 @@
       <c r="H71" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I71" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I71" s="40"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S71" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="K71" s="40"/>
+      <c r="L71" s="40"/>
+      <c r="M71" s="40"/>
+      <c r="N71" s="40"/>
+      <c r="O71" s="40"/>
+      <c r="P71" s="40"/>
+      <c r="Q71" s="40"/>
+      <c r="R71" s="40"/>
+      <c r="S71" s="40"/>
       <c r="T71" s="40"/>
       <c r="U71" s="40"/>
       <c r="V71" s="40"/>
@@ -6033,11 +4736,11 @@
       </c>
       <c r="E72" s="28">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F72" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G72" s="38" t="s">
         <v>20</v>
@@ -6045,37 +4748,17 @@
       <c r="H72" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I72" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I72" s="40"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L72" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M72" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N72" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O72" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P72" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q72" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R72" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="S72" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K72" s="40"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="40"/>
+      <c r="N72" s="40"/>
+      <c r="O72" s="40"/>
+      <c r="P72" s="40"/>
+      <c r="Q72" s="40"/>
+      <c r="R72" s="40"/>
+      <c r="S72" s="40"/>
       <c r="T72" s="40"/>
       <c r="U72" s="40"/>
       <c r="V72" s="40"/>
@@ -6105,7 +4788,7 @@
       </c>
       <c r="F73" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G73" s="38" t="s">
         <v>20</v>
@@ -6113,37 +4796,17 @@
       <c r="H73" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I73" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I73" s="40"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L73" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M73" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N73" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O73" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P73" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q73" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R73" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S73" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K73" s="40"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="40"/>
+      <c r="N73" s="40"/>
+      <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
+      <c r="Q73" s="40"/>
+      <c r="R73" s="40"/>
+      <c r="S73" s="40"/>
       <c r="T73" s="40"/>
       <c r="U73" s="40"/>
       <c r="V73" s="40"/>
@@ -6169,11 +4832,11 @@
       </c>
       <c r="E74" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F74" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G74" s="38" t="s">
         <v>20</v>
@@ -6181,37 +4844,17 @@
       <c r="H74" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I74" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I74" s="40"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L74" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M74" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N74" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O74" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P74" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q74" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R74" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S74" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="K74" s="40"/>
+      <c r="L74" s="40"/>
+      <c r="M74" s="40"/>
+      <c r="N74" s="40"/>
+      <c r="O74" s="40"/>
+      <c r="P74" s="40"/>
+      <c r="Q74" s="40"/>
+      <c r="R74" s="40"/>
+      <c r="S74" s="40"/>
       <c r="T74" s="40"/>
       <c r="U74" s="40"/>
       <c r="V74" s="40"/>
@@ -6237,11 +4880,11 @@
       </c>
       <c r="E75" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G75" s="38" t="s">
         <v>21</v>
@@ -6249,37 +4892,17 @@
       <c r="H75" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I75" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I75" s="40"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L75" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M75" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N75" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O75" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P75" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q75" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R75" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S75" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K75" s="40"/>
+      <c r="L75" s="40"/>
+      <c r="M75" s="40"/>
+      <c r="N75" s="40"/>
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="40"/>
+      <c r="R75" s="40"/>
+      <c r="S75" s="40"/>
       <c r="T75" s="40"/>
       <c r="U75" s="40"/>
       <c r="V75" s="40"/>
@@ -6305,11 +4928,11 @@
       </c>
       <c r="E76" s="28">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F76" s="37">
+        <f t="shared" si="2"/>
         <v>2</v>
-      </c>
-      <c r="F76" s="37">
-        <f t="shared" si="2"/>
-        <v>10</v>
       </c>
       <c r="G76" s="38" t="s">
         <v>21</v>
@@ -6317,37 +4940,17 @@
       <c r="H76" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I76" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I76" s="40"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L76" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M76" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N76" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O76" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P76" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q76" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R76" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S76" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K76" s="40"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="40"/>
+      <c r="S76" s="40"/>
       <c r="T76" s="40"/>
       <c r="U76" s="40"/>
       <c r="V76" s="40"/>
@@ -6373,7 +4976,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G77" s="38"/>
+      <c r="G77" s="42"/>
       <c r="H77" s="40"/>
       <c r="I77" s="40"/>
       <c r="J77" s="40"/>
@@ -6385,7 +4988,7 @@
       <c r="P77" s="40"/>
       <c r="Q77" s="40"/>
       <c r="R77" s="40"/>
-      <c r="S77" s="39"/>
+      <c r="S77" s="40"/>
       <c r="T77" s="40"/>
       <c r="U77" s="40"/>
       <c r="V77" s="40"/>
@@ -6411,7 +5014,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G78" s="42"/>
+      <c r="G78" s="43"/>
       <c r="H78" s="41"/>
       <c r="I78" s="41"/>
       <c r="J78" s="41"/>
@@ -6449,7 +5052,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G79" s="42"/>
+      <c r="G79" s="43"/>
       <c r="H79" s="41"/>
       <c r="I79" s="41"/>
       <c r="J79" s="41"/>
@@ -6487,7 +5090,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G80" s="42"/>
+      <c r="G80" s="43"/>
       <c r="H80" s="41"/>
       <c r="I80" s="41"/>
       <c r="J80" s="41"/>
@@ -6525,7 +5128,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G81" s="42"/>
+      <c r="G81" s="43"/>
       <c r="H81" s="41"/>
       <c r="I81" s="41"/>
       <c r="J81" s="41"/>
@@ -6563,7 +5166,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G82" s="42"/>
+      <c r="G82" s="43"/>
       <c r="H82" s="41"/>
       <c r="I82" s="41"/>
       <c r="J82" s="41"/>
@@ -6601,7 +5204,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G83" s="42"/>
+      <c r="G83" s="43"/>
       <c r="H83" s="41"/>
       <c r="I83" s="41"/>
       <c r="J83" s="41"/>
@@ -6639,7 +5242,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G84" s="42"/>
+      <c r="G84" s="43"/>
       <c r="H84" s="41"/>
       <c r="I84" s="41"/>
       <c r="J84" s="41"/>
@@ -6666,8 +5269,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
       <c r="D85" s="28"/>
       <c r="E85" s="28" t="str">
         <f t="shared" si="1"/>
@@ -6677,7 +5280,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G85" s="42"/>
+      <c r="G85" s="43"/>
       <c r="H85" s="41"/>
       <c r="I85" s="41"/>
       <c r="J85" s="41"/>
@@ -6704,8 +5307,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
       <c r="D86" s="28"/>
       <c r="E86" s="28" t="str">
         <f t="shared" si="1"/>
@@ -6715,7 +5318,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G86" s="42"/>
+      <c r="G86" s="43"/>
       <c r="H86" s="41"/>
       <c r="I86" s="41"/>
       <c r="J86" s="41"/>
@@ -6742,8 +5345,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B87" s="43"/>
-      <c r="C87" s="43"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
       <c r="D87" s="28"/>
       <c r="E87" s="28" t="str">
         <f t="shared" si="1"/>
@@ -6753,7 +5356,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G87" s="42"/>
+      <c r="G87" s="43"/>
       <c r="H87" s="41"/>
       <c r="I87" s="41"/>
       <c r="J87" s="41"/>
@@ -6780,8 +5383,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
       <c r="D88" s="28"/>
       <c r="E88" s="28" t="str">
         <f t="shared" si="1"/>
@@ -6791,7 +5394,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G88" s="42"/>
+      <c r="G88" s="43"/>
       <c r="H88" s="41"/>
       <c r="I88" s="41"/>
       <c r="J88" s="41"/>
@@ -6818,8 +5421,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B89" s="43"/>
-      <c r="C89" s="43"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="44"/>
       <c r="D89" s="28"/>
       <c r="E89" s="28" t="str">
         <f t="shared" si="1"/>
@@ -6829,7 +5432,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G89" s="42"/>
+      <c r="G89" s="43"/>
       <c r="H89" s="41"/>
       <c r="I89" s="41"/>
       <c r="J89" s="41"/>
@@ -6856,8 +5459,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B90" s="43"/>
-      <c r="C90" s="43"/>
+      <c r="B90" s="44"/>
+      <c r="C90" s="44"/>
       <c r="D90" s="28"/>
       <c r="E90" s="28" t="str">
         <f t="shared" si="1"/>
@@ -6867,7 +5470,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G90" s="42"/>
+      <c r="G90" s="43"/>
       <c r="H90" s="41"/>
       <c r="I90" s="41"/>
       <c r="J90" s="41"/>
@@ -6894,8 +5497,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B91" s="43"/>
-      <c r="C91" s="43"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="44"/>
       <c r="D91" s="28"/>
       <c r="E91" s="28" t="str">
         <f t="shared" si="1"/>
@@ -6905,7 +5508,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G91" s="42"/>
+      <c r="G91" s="43"/>
       <c r="H91" s="41"/>
       <c r="I91" s="41"/>
       <c r="J91" s="41"/>
@@ -6932,8 +5535,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B92" s="43"/>
-      <c r="C92" s="43"/>
+      <c r="B92" s="44"/>
+      <c r="C92" s="44"/>
       <c r="D92" s="28"/>
       <c r="E92" s="28" t="str">
         <f t="shared" si="1"/>
@@ -6943,7 +5546,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G92" s="42"/>
+      <c r="G92" s="43"/>
       <c r="H92" s="41"/>
       <c r="I92" s="41"/>
       <c r="J92" s="41"/>
@@ -6970,8 +5573,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B93" s="43"/>
-      <c r="C93" s="43"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="44"/>
       <c r="D93" s="28"/>
       <c r="E93" s="28" t="str">
         <f t="shared" si="1"/>
@@ -6981,7 +5584,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G93" s="42"/>
+      <c r="G93" s="43"/>
       <c r="H93" s="41"/>
       <c r="I93" s="41"/>
       <c r="J93" s="41"/>
@@ -7008,8 +5611,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B94" s="43"/>
-      <c r="C94" s="43"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="44"/>
       <c r="D94" s="28"/>
       <c r="E94" s="28" t="str">
         <f t="shared" si="1"/>
@@ -7019,7 +5622,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G94" s="42"/>
+      <c r="G94" s="43"/>
       <c r="H94" s="41"/>
       <c r="I94" s="41"/>
       <c r="J94" s="41"/>
@@ -7046,8 +5649,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B95" s="43"/>
-      <c r="C95" s="43"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="44"/>
       <c r="D95" s="28"/>
       <c r="E95" s="28" t="str">
         <f t="shared" si="1"/>
@@ -7057,7 +5660,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G95" s="42"/>
+      <c r="G95" s="43"/>
       <c r="H95" s="41"/>
       <c r="I95" s="41"/>
       <c r="J95" s="41"/>

--- a/attendance-files/SDM/SDM-M (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/SDM/SDM-M (ABCD) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="160">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -878,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -993,9 +993,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
@@ -1616,11 +1613,11 @@
       </c>
       <c r="E7" s="28">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="29">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>20</v>
@@ -1628,24 +1625,58 @@
       <c r="H7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="32"/>
+      <c r="I7" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
+      <c r="K7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="V7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="W7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="X7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z7" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="AA7" s="33"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -1664,11 +1695,11 @@
       </c>
       <c r="E8" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>20</v>
@@ -1676,24 +1707,58 @@
       <c r="H8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="40"/>
+      <c r="I8" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
+      <c r="K8" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z8" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA8" s="41"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -1712,11 +1777,11 @@
       </c>
       <c r="E9" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>20</v>
@@ -1724,24 +1789,58 @@
       <c r="H9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="40"/>
+      <c r="I9" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
+      <c r="K9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z9" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA9" s="41"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -1760,11 +1859,11 @@
       </c>
       <c r="E10" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>20</v>
@@ -1772,24 +1871,58 @@
       <c r="H10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="40"/>
+      <c r="I10" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
+      <c r="K10" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z10" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA10" s="41"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -1808,11 +1941,11 @@
       </c>
       <c r="E11" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>21</v>
@@ -1820,24 +1953,58 @@
       <c r="H11" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="40"/>
+      <c r="I11" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
+      <c r="K11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T11" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z11" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA11" s="41"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -1856,11 +2023,11 @@
       </c>
       <c r="E12" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>21</v>
@@ -1868,24 +2035,58 @@
       <c r="H12" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="40"/>
+      <c r="I12" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
+      <c r="K12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z12" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA12" s="41"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -1904,11 +2105,11 @@
       </c>
       <c r="E13" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F13" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G13" s="38" t="s">
         <v>20</v>
@@ -1916,24 +2117,58 @@
       <c r="H13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="40"/>
+      <c r="I13" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
+      <c r="K13" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="X13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z13" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA13" s="41"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -1952,11 +2187,11 @@
       </c>
       <c r="E14" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>21</v>
@@ -1964,24 +2199,58 @@
       <c r="H14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="40"/>
+      <c r="I14" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
+      <c r="K14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V14" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X14" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z14" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA14" s="41"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -2000,11 +2269,11 @@
       </c>
       <c r="E15" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>20</v>
@@ -2012,24 +2281,58 @@
       <c r="H15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="40"/>
+      <c r="I15" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
+      <c r="K15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z15" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA15" s="41"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -2048,11 +2351,11 @@
       </c>
       <c r="E16" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F16" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>20</v>
@@ -2060,24 +2363,58 @@
       <c r="H16" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="40"/>
+      <c r="I16" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
+      <c r="K16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z16" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA16" s="41"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -2096,11 +2433,11 @@
       </c>
       <c r="E17" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>21</v>
@@ -2108,24 +2445,58 @@
       <c r="H17" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="40"/>
+      <c r="I17" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
+      <c r="K17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z17" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA17" s="41"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -2144,11 +2515,11 @@
       </c>
       <c r="E18" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>20</v>
@@ -2156,24 +2527,58 @@
       <c r="H18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="40"/>
+      <c r="I18" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
+      <c r="K18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z18" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA18" s="41"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -2192,11 +2597,11 @@
       </c>
       <c r="E19" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G19" s="38" t="s">
         <v>20</v>
@@ -2204,24 +2609,58 @@
       <c r="H19" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="40"/>
+      <c r="I19" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
+      <c r="K19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z19" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA19" s="41"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -2244,7 +2683,7 @@
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G20" s="38" t="s">
         <v>20</v>
@@ -2252,24 +2691,58 @@
       <c r="H20" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="40"/>
+      <c r="I20" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
+      <c r="K20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z20" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA20" s="41"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -2288,11 +2761,11 @@
       </c>
       <c r="E21" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G21" s="38" t="s">
         <v>21</v>
@@ -2300,24 +2773,58 @@
       <c r="H21" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="40"/>
+      <c r="I21" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
+      <c r="K21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z21" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA21" s="41"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -2336,11 +2843,11 @@
       </c>
       <c r="E22" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>20</v>
@@ -2348,24 +2855,58 @@
       <c r="H22" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="40"/>
+      <c r="I22" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
+      <c r="K22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z22" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA22" s="41"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -2384,11 +2925,11 @@
       </c>
       <c r="E23" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G23" s="38" t="s">
         <v>20</v>
@@ -2396,24 +2937,58 @@
       <c r="H23" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="40"/>
+      <c r="I23" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
+      <c r="K23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T23" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z23" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA23" s="41"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -2432,11 +3007,11 @@
       </c>
       <c r="E24" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G24" s="38" t="s">
         <v>20</v>
@@ -2444,24 +3019,58 @@
       <c r="H24" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="40"/>
+      <c r="I24" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
+      <c r="K24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S24" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z24" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA24" s="41"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -2480,11 +3089,11 @@
       </c>
       <c r="E25" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G25" s="38" t="s">
         <v>21</v>
@@ -2492,24 +3101,58 @@
       <c r="H25" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="40"/>
+      <c r="I25" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
+      <c r="K25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z25" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA25" s="41"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -2528,11 +3171,11 @@
       </c>
       <c r="E26" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>21</v>
@@ -2540,24 +3183,58 @@
       <c r="H26" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="40"/>
+      <c r="I26" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="40"/>
+      <c r="K26" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z26" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA26" s="41"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -2576,11 +3253,11 @@
       </c>
       <c r="E27" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G27" s="38" t="s">
         <v>21</v>
@@ -2588,24 +3265,58 @@
       <c r="H27" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="40"/>
+      <c r="I27" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
+      <c r="K27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V27" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y27" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z27" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA27" s="41"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -2624,11 +3335,11 @@
       </c>
       <c r="E28" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G28" s="38" t="s">
         <v>20</v>
@@ -2636,24 +3347,58 @@
       <c r="H28" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="40"/>
+      <c r="I28" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
+      <c r="K28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z28" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA28" s="41"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -2672,11 +3417,11 @@
       </c>
       <c r="E29" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G29" s="38" t="s">
         <v>21</v>
@@ -2684,24 +3429,58 @@
       <c r="H29" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I29" s="40"/>
+      <c r="I29" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="40"/>
-      <c r="X29" s="40"/>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="40"/>
+      <c r="K29" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V29" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W29" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="X29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z29" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA29" s="41"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -2720,11 +3499,11 @@
       </c>
       <c r="E30" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G30" s="38" t="s">
         <v>20</v>
@@ -2732,24 +3511,58 @@
       <c r="H30" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="40"/>
+      <c r="I30" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="40"/>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="40"/>
+      <c r="K30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T30" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U30" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z30" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA30" s="41"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -2768,11 +3581,11 @@
       </c>
       <c r="E31" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>20</v>
@@ -2780,24 +3593,58 @@
       <c r="H31" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="40"/>
+      <c r="I31" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="40"/>
-      <c r="W31" s="40"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="40"/>
+      <c r="K31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X31" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z31" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA31" s="41"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -2816,11 +3663,11 @@
       </c>
       <c r="E32" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G32" s="38" t="s">
         <v>20</v>
@@ -2828,24 +3675,58 @@
       <c r="H32" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="40"/>
+      <c r="I32" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="40"/>
+      <c r="K32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z32" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA32" s="41"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -2864,11 +3745,11 @@
       </c>
       <c r="E33" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G33" s="38" t="s">
         <v>20</v>
@@ -2876,24 +3757,58 @@
       <c r="H33" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="40"/>
+      <c r="I33" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="40"/>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="40"/>
+      <c r="K33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z33" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA33" s="41"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -2912,11 +3827,11 @@
       </c>
       <c r="E34" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G34" s="38" t="s">
         <v>20</v>
@@ -2924,24 +3839,58 @@
       <c r="H34" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="40"/>
+      <c r="I34" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="40"/>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="40"/>
-      <c r="Z34" s="40"/>
+      <c r="K34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y34" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z34" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA34" s="41"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -2960,11 +3909,11 @@
       </c>
       <c r="E35" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G35" s="38" t="s">
         <v>20</v>
@@ -2972,24 +3921,58 @@
       <c r="H35" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="40"/>
+      <c r="I35" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="40"/>
-      <c r="Y35" s="40"/>
-      <c r="Z35" s="40"/>
+      <c r="K35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z35" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA35" s="41"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -3008,11 +3991,11 @@
       </c>
       <c r="E36" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G36" s="38" t="s">
         <v>21</v>
@@ -3020,24 +4003,58 @@
       <c r="H36" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="40"/>
+      <c r="I36" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="40"/>
-      <c r="W36" s="40"/>
-      <c r="X36" s="40"/>
-      <c r="Y36" s="40"/>
-      <c r="Z36" s="40"/>
+      <c r="K36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T36" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U36" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z36" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA36" s="41"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -3056,11 +4073,11 @@
       </c>
       <c r="E37" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F37" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G37" s="38" t="s">
         <v>20</v>
@@ -3068,24 +4085,58 @@
       <c r="H37" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="40"/>
+      <c r="I37" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="40"/>
-      <c r="U37" s="40"/>
-      <c r="V37" s="40"/>
-      <c r="W37" s="40"/>
-      <c r="X37" s="40"/>
-      <c r="Y37" s="40"/>
-      <c r="Z37" s="40"/>
+      <c r="K37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z37" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA37" s="41"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -3104,11 +4155,11 @@
       </c>
       <c r="E38" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F38" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G38" s="38" t="s">
         <v>21</v>
@@ -3116,24 +4167,58 @@
       <c r="H38" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="40"/>
+      <c r="I38" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="40"/>
-      <c r="W38" s="40"/>
-      <c r="X38" s="40"/>
-      <c r="Y38" s="40"/>
-      <c r="Z38" s="40"/>
+      <c r="K38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q38" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V38" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y38" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z38" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA38" s="41"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -3156,7 +4241,7 @@
       </c>
       <c r="F39" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G39" s="38" t="s">
         <v>21</v>
@@ -3164,24 +4249,58 @@
       <c r="H39" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="40"/>
+      <c r="I39" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
-      <c r="W39" s="40"/>
-      <c r="X39" s="40"/>
-      <c r="Y39" s="40"/>
-      <c r="Z39" s="40"/>
+      <c r="K39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z39" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA39" s="41"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -3200,11 +4319,11 @@
       </c>
       <c r="E40" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G40" s="38" t="s">
         <v>20</v>
@@ -3212,24 +4331,58 @@
       <c r="H40" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="40"/>
+      <c r="I40" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="40"/>
-      <c r="U40" s="40"/>
-      <c r="V40" s="40"/>
-      <c r="W40" s="40"/>
-      <c r="X40" s="40"/>
-      <c r="Y40" s="40"/>
-      <c r="Z40" s="40"/>
+      <c r="K40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q40" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V40" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z40" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA40" s="41"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -3248,11 +4401,11 @@
       </c>
       <c r="E41" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F41" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G41" s="38" t="s">
         <v>21</v>
@@ -3260,24 +4413,58 @@
       <c r="H41" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I41" s="40"/>
+      <c r="I41" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="40"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="40"/>
-      <c r="W41" s="40"/>
-      <c r="X41" s="40"/>
-      <c r="Y41" s="40"/>
-      <c r="Z41" s="40"/>
+      <c r="K41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z41" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA41" s="41"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -3296,11 +4483,11 @@
       </c>
       <c r="E42" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F42" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G42" s="38" t="s">
         <v>21</v>
@@ -3308,24 +4495,58 @@
       <c r="H42" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="40"/>
+      <c r="I42" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="40"/>
-      <c r="U42" s="40"/>
-      <c r="V42" s="40"/>
-      <c r="W42" s="40"/>
-      <c r="X42" s="40"/>
-      <c r="Y42" s="40"/>
-      <c r="Z42" s="40"/>
+      <c r="K42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z42" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA42" s="41"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -3344,11 +4565,11 @@
       </c>
       <c r="E43" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G43" s="38" t="s">
         <v>20</v>
@@ -3356,24 +4577,58 @@
       <c r="H43" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="40"/>
+      <c r="I43" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="40"/>
-      <c r="U43" s="40"/>
-      <c r="V43" s="40"/>
-      <c r="W43" s="40"/>
-      <c r="X43" s="40"/>
-      <c r="Y43" s="40"/>
-      <c r="Z43" s="40"/>
+      <c r="K43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W43" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="X43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z43" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA43" s="41"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -3392,11 +4647,11 @@
       </c>
       <c r="E44" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G44" s="38" t="s">
         <v>21</v>
@@ -3404,24 +4659,58 @@
       <c r="H44" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I44" s="40"/>
+      <c r="I44" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="40"/>
-      <c r="T44" s="40"/>
-      <c r="U44" s="40"/>
-      <c r="V44" s="40"/>
-      <c r="W44" s="40"/>
-      <c r="X44" s="40"/>
-      <c r="Y44" s="40"/>
-      <c r="Z44" s="40"/>
+      <c r="K44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O44" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z44" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA44" s="41"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -3440,11 +4729,11 @@
       </c>
       <c r="E45" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>21</v>
@@ -3452,24 +4741,58 @@
       <c r="H45" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I45" s="40"/>
+      <c r="I45" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="40"/>
-      <c r="U45" s="40"/>
-      <c r="V45" s="40"/>
-      <c r="W45" s="40"/>
-      <c r="X45" s="40"/>
-      <c r="Y45" s="40"/>
-      <c r="Z45" s="40"/>
+      <c r="K45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U45" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z45" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA45" s="41"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -3488,11 +4811,11 @@
       </c>
       <c r="E46" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F46" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G46" s="38" t="s">
         <v>20</v>
@@ -3500,24 +4823,58 @@
       <c r="H46" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I46" s="40"/>
+      <c r="I46" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="40"/>
-      <c r="R46" s="40"/>
-      <c r="S46" s="40"/>
-      <c r="T46" s="40"/>
-      <c r="U46" s="40"/>
-      <c r="V46" s="40"/>
-      <c r="W46" s="40"/>
-      <c r="X46" s="40"/>
-      <c r="Y46" s="40"/>
-      <c r="Z46" s="40"/>
+      <c r="K46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T46" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z46" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA46" s="41"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -3536,11 +4893,11 @@
       </c>
       <c r="E47" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F47" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G47" s="38" t="s">
         <v>20</v>
@@ -3548,24 +4905,58 @@
       <c r="H47" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I47" s="40"/>
+      <c r="I47" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="40"/>
-      <c r="U47" s="40"/>
-      <c r="V47" s="40"/>
-      <c r="W47" s="40"/>
-      <c r="X47" s="40"/>
-      <c r="Y47" s="40"/>
-      <c r="Z47" s="40"/>
+      <c r="K47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z47" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA47" s="41"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -3584,11 +4975,11 @@
       </c>
       <c r="E48" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F48" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G48" s="38" t="s">
         <v>20</v>
@@ -3596,24 +4987,58 @@
       <c r="H48" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I48" s="40"/>
+      <c r="I48" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
-      <c r="T48" s="40"/>
-      <c r="U48" s="40"/>
-      <c r="V48" s="40"/>
-      <c r="W48" s="40"/>
-      <c r="X48" s="40"/>
-      <c r="Y48" s="40"/>
-      <c r="Z48" s="40"/>
+      <c r="K48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O48" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R48" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z48" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA48" s="41"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -3632,11 +5057,11 @@
       </c>
       <c r="E49" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F49" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G49" s="38" t="s">
         <v>20</v>
@@ -3644,24 +5069,58 @@
       <c r="H49" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I49" s="40"/>
+      <c r="I49" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="40"/>
-      <c r="T49" s="40"/>
-      <c r="U49" s="40"/>
-      <c r="V49" s="40"/>
-      <c r="W49" s="40"/>
-      <c r="X49" s="40"/>
-      <c r="Y49" s="40"/>
-      <c r="Z49" s="40"/>
+      <c r="K49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N49" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R49" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z49" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA49" s="41"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -3680,11 +5139,11 @@
       </c>
       <c r="E50" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F50" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G50" s="38" t="s">
         <v>20</v>
@@ -3692,24 +5151,58 @@
       <c r="H50" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="40"/>
+      <c r="I50" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="40"/>
-      <c r="T50" s="40"/>
-      <c r="U50" s="40"/>
-      <c r="V50" s="40"/>
-      <c r="W50" s="40"/>
-      <c r="X50" s="40"/>
-      <c r="Y50" s="40"/>
-      <c r="Z50" s="40"/>
+      <c r="K50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O50" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z50" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA50" s="41"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -3728,11 +5221,11 @@
       </c>
       <c r="E51" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G51" s="38" t="s">
         <v>20</v>
@@ -3740,24 +5233,58 @@
       <c r="H51" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="40"/>
+      <c r="I51" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="40"/>
-      <c r="T51" s="40"/>
-      <c r="U51" s="40"/>
-      <c r="V51" s="40"/>
-      <c r="W51" s="40"/>
-      <c r="X51" s="40"/>
-      <c r="Y51" s="40"/>
-      <c r="Z51" s="40"/>
+      <c r="K51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z51" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA51" s="41"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -3776,11 +5303,11 @@
       </c>
       <c r="E52" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F52" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G52" s="38" t="s">
         <v>21</v>
@@ -3788,24 +5315,58 @@
       <c r="H52" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I52" s="40"/>
+      <c r="I52" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="40"/>
-      <c r="U52" s="40"/>
-      <c r="V52" s="40"/>
-      <c r="W52" s="40"/>
-      <c r="X52" s="40"/>
-      <c r="Y52" s="40"/>
-      <c r="Z52" s="40"/>
+      <c r="K52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N52" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z52" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA52" s="41"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -3824,11 +5385,11 @@
       </c>
       <c r="E53" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F53" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G53" s="38" t="s">
         <v>20</v>
@@ -3836,24 +5397,58 @@
       <c r="H53" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I53" s="40"/>
+      <c r="I53" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="40"/>
-      <c r="U53" s="40"/>
-      <c r="V53" s="40"/>
-      <c r="W53" s="40"/>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="40"/>
-      <c r="Z53" s="40"/>
+      <c r="K53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P53" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z53" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA53" s="41"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -3872,11 +5467,11 @@
       </c>
       <c r="E54" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F54" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G54" s="38" t="s">
         <v>20</v>
@@ -3884,24 +5479,58 @@
       <c r="H54" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="40"/>
+      <c r="I54" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="40"/>
-      <c r="T54" s="40"/>
-      <c r="U54" s="40"/>
-      <c r="V54" s="40"/>
-      <c r="W54" s="40"/>
-      <c r="X54" s="40"/>
-      <c r="Y54" s="40"/>
-      <c r="Z54" s="40"/>
+      <c r="K54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U54" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z54" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA54" s="41"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -3920,11 +5549,11 @@
       </c>
       <c r="E55" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F55" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G55" s="38" t="s">
         <v>20</v>
@@ -3932,24 +5561,58 @@
       <c r="H55" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I55" s="40"/>
+      <c r="I55" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="40"/>
-      <c r="T55" s="40"/>
-      <c r="U55" s="40"/>
-      <c r="V55" s="40"/>
-      <c r="W55" s="40"/>
-      <c r="X55" s="40"/>
-      <c r="Y55" s="40"/>
-      <c r="Z55" s="40"/>
+      <c r="K55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W55" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="X55" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y55" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z55" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA55" s="41"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -3968,11 +5631,11 @@
       </c>
       <c r="E56" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F56" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G56" s="38" t="s">
         <v>20</v>
@@ -3980,24 +5643,58 @@
       <c r="H56" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I56" s="40"/>
+      <c r="I56" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="40"/>
-      <c r="T56" s="40"/>
-      <c r="U56" s="40"/>
-      <c r="V56" s="40"/>
-      <c r="W56" s="40"/>
-      <c r="X56" s="40"/>
-      <c r="Y56" s="40"/>
-      <c r="Z56" s="40"/>
+      <c r="K56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R56" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V56" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z56" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA56" s="41"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -4016,11 +5713,11 @@
       </c>
       <c r="E57" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>20</v>
@@ -4028,24 +5725,58 @@
       <c r="H57" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I57" s="40"/>
+      <c r="I57" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J57" s="40"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="40"/>
-      <c r="S57" s="40"/>
-      <c r="T57" s="40"/>
-      <c r="U57" s="40"/>
-      <c r="V57" s="40"/>
-      <c r="W57" s="40"/>
-      <c r="X57" s="40"/>
-      <c r="Y57" s="40"/>
-      <c r="Z57" s="40"/>
+      <c r="K57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z57" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA57" s="41"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -4064,11 +5795,11 @@
       </c>
       <c r="E58" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F58" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>20</v>
@@ -4076,24 +5807,58 @@
       <c r="H58" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I58" s="40"/>
+      <c r="I58" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J58" s="40"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="40"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="40"/>
-      <c r="T58" s="40"/>
-      <c r="U58" s="40"/>
-      <c r="V58" s="40"/>
-      <c r="W58" s="40"/>
-      <c r="X58" s="40"/>
-      <c r="Y58" s="40"/>
-      <c r="Z58" s="40"/>
+      <c r="K58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z58" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA58" s="41"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -4112,11 +5877,11 @@
       </c>
       <c r="E59" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F59" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G59" s="38" t="s">
         <v>20</v>
@@ -4124,24 +5889,58 @@
       <c r="H59" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I59" s="40"/>
+      <c r="I59" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J59" s="40"/>
-      <c r="K59" s="40"/>
-      <c r="L59" s="40"/>
-      <c r="M59" s="40"/>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="40"/>
-      <c r="R59" s="40"/>
-      <c r="S59" s="40"/>
-      <c r="T59" s="40"/>
-      <c r="U59" s="40"/>
-      <c r="V59" s="40"/>
-      <c r="W59" s="40"/>
-      <c r="X59" s="40"/>
-      <c r="Y59" s="40"/>
-      <c r="Z59" s="40"/>
+      <c r="K59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O59" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X59" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z59" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA59" s="41"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -4160,11 +5959,11 @@
       </c>
       <c r="E60" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F60" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G60" s="38" t="s">
         <v>21</v>
@@ -4172,24 +5971,58 @@
       <c r="H60" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I60" s="40"/>
+      <c r="I60" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J60" s="40"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="40"/>
-      <c r="T60" s="40"/>
-      <c r="U60" s="40"/>
-      <c r="V60" s="40"/>
-      <c r="W60" s="40"/>
-      <c r="X60" s="40"/>
-      <c r="Y60" s="40"/>
-      <c r="Z60" s="40"/>
+      <c r="K60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T60" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U60" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V60" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z60" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA60" s="41"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -4208,11 +6041,11 @@
       </c>
       <c r="E61" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F61" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G61" s="38" t="s">
         <v>20</v>
@@ -4220,24 +6053,58 @@
       <c r="H61" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I61" s="40"/>
+      <c r="I61" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J61" s="40"/>
-      <c r="K61" s="40"/>
-      <c r="L61" s="40"/>
-      <c r="M61" s="40"/>
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="40"/>
-      <c r="T61" s="40"/>
-      <c r="U61" s="40"/>
-      <c r="V61" s="40"/>
-      <c r="W61" s="40"/>
-      <c r="X61" s="40"/>
-      <c r="Y61" s="40"/>
-      <c r="Z61" s="40"/>
+      <c r="K61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M61" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R61" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S61" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T61" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U61" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V61" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W61" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X61" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y61" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z61" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA61" s="41"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -4256,11 +6123,11 @@
       </c>
       <c r="E62" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F62" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G62" s="38" t="s">
         <v>20</v>
@@ -4268,24 +6135,58 @@
       <c r="H62" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I62" s="40"/>
+      <c r="I62" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J62" s="40"/>
-      <c r="K62" s="40"/>
-      <c r="L62" s="40"/>
-      <c r="M62" s="40"/>
-      <c r="N62" s="40"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="40"/>
-      <c r="R62" s="40"/>
-      <c r="S62" s="40"/>
-      <c r="T62" s="40"/>
-      <c r="U62" s="40"/>
-      <c r="V62" s="40"/>
-      <c r="W62" s="40"/>
-      <c r="X62" s="40"/>
-      <c r="Y62" s="40"/>
-      <c r="Z62" s="40"/>
+      <c r="K62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T62" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U62" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z62" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA62" s="41"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -4304,11 +6205,11 @@
       </c>
       <c r="E63" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F63" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G63" s="38" t="s">
         <v>21</v>
@@ -4316,24 +6217,58 @@
       <c r="H63" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I63" s="40"/>
+      <c r="I63" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J63" s="40"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="40"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="40"/>
-      <c r="T63" s="40"/>
-      <c r="U63" s="40"/>
-      <c r="V63" s="40"/>
-      <c r="W63" s="40"/>
-      <c r="X63" s="40"/>
-      <c r="Y63" s="40"/>
-      <c r="Z63" s="40"/>
+      <c r="K63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M63" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R63" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U63" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V63" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z63" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA63" s="41"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -4352,11 +6287,11 @@
       </c>
       <c r="E64" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F64" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G64" s="38" t="s">
         <v>21</v>
@@ -4364,24 +6299,58 @@
       <c r="H64" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I64" s="40"/>
+      <c r="I64" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J64" s="40"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="40"/>
-      <c r="M64" s="40"/>
-      <c r="N64" s="40"/>
-      <c r="O64" s="40"/>
-      <c r="P64" s="40"/>
-      <c r="Q64" s="40"/>
-      <c r="R64" s="40"/>
-      <c r="S64" s="40"/>
-      <c r="T64" s="40"/>
-      <c r="U64" s="40"/>
-      <c r="V64" s="40"/>
-      <c r="W64" s="40"/>
-      <c r="X64" s="40"/>
-      <c r="Y64" s="40"/>
-      <c r="Z64" s="40"/>
+      <c r="K64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L64" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O64" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S64" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y64" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z64" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA64" s="41"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -4400,11 +6369,11 @@
       </c>
       <c r="E65" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F65" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G65" s="38" t="s">
         <v>21</v>
@@ -4412,24 +6381,58 @@
       <c r="H65" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I65" s="40"/>
+      <c r="I65" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J65" s="40"/>
-      <c r="K65" s="40"/>
-      <c r="L65" s="40"/>
-      <c r="M65" s="40"/>
-      <c r="N65" s="40"/>
-      <c r="O65" s="40"/>
-      <c r="P65" s="40"/>
-      <c r="Q65" s="40"/>
-      <c r="R65" s="40"/>
-      <c r="S65" s="40"/>
-      <c r="T65" s="40"/>
-      <c r="U65" s="40"/>
-      <c r="V65" s="40"/>
-      <c r="W65" s="40"/>
-      <c r="X65" s="40"/>
-      <c r="Y65" s="40"/>
-      <c r="Z65" s="40"/>
+      <c r="K65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O65" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T65" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X65" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z65" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA65" s="41"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -4448,11 +6451,11 @@
       </c>
       <c r="E66" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F66" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G66" s="38" t="s">
         <v>20</v>
@@ -4460,24 +6463,58 @@
       <c r="H66" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I66" s="40"/>
+      <c r="I66" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J66" s="40"/>
-      <c r="K66" s="40"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="40"/>
-      <c r="N66" s="40"/>
-      <c r="O66" s="40"/>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="40"/>
-      <c r="R66" s="40"/>
-      <c r="S66" s="40"/>
-      <c r="T66" s="40"/>
-      <c r="U66" s="40"/>
-      <c r="V66" s="40"/>
-      <c r="W66" s="40"/>
-      <c r="X66" s="40"/>
-      <c r="Y66" s="40"/>
-      <c r="Z66" s="40"/>
+      <c r="K66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R66" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X66" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z66" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA66" s="41"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -4496,11 +6533,11 @@
       </c>
       <c r="E67" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F67" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G67" s="38" t="s">
         <v>20</v>
@@ -4508,24 +6545,58 @@
       <c r="H67" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I67" s="40"/>
+      <c r="I67" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J67" s="40"/>
-      <c r="K67" s="40"/>
-      <c r="L67" s="40"/>
-      <c r="M67" s="40"/>
-      <c r="N67" s="40"/>
-      <c r="O67" s="40"/>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="40"/>
-      <c r="R67" s="40"/>
-      <c r="S67" s="40"/>
-      <c r="T67" s="40"/>
-      <c r="U67" s="40"/>
-      <c r="V67" s="40"/>
-      <c r="W67" s="40"/>
-      <c r="X67" s="40"/>
-      <c r="Y67" s="40"/>
-      <c r="Z67" s="40"/>
+      <c r="K67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q67" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z67" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA67" s="41"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -4544,11 +6615,11 @@
       </c>
       <c r="E68" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F68" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>20</v>
@@ -4556,24 +6627,58 @@
       <c r="H68" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I68" s="40"/>
+      <c r="I68" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J68" s="40"/>
-      <c r="K68" s="40"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="40"/>
-      <c r="N68" s="40"/>
-      <c r="O68" s="40"/>
-      <c r="P68" s="40"/>
-      <c r="Q68" s="40"/>
-      <c r="R68" s="40"/>
-      <c r="S68" s="40"/>
-      <c r="T68" s="40"/>
-      <c r="U68" s="40"/>
-      <c r="V68" s="40"/>
-      <c r="W68" s="40"/>
-      <c r="X68" s="40"/>
-      <c r="Y68" s="40"/>
-      <c r="Z68" s="40"/>
+      <c r="K68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R68" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U68" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z68" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA68" s="41"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -4592,11 +6697,11 @@
       </c>
       <c r="E69" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G69" s="38" t="s">
         <v>20</v>
@@ -4604,24 +6709,58 @@
       <c r="H69" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I69" s="40"/>
+      <c r="I69" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J69" s="40"/>
-      <c r="K69" s="40"/>
-      <c r="L69" s="40"/>
-      <c r="M69" s="40"/>
-      <c r="N69" s="40"/>
-      <c r="O69" s="40"/>
-      <c r="P69" s="40"/>
-      <c r="Q69" s="40"/>
-      <c r="R69" s="40"/>
-      <c r="S69" s="40"/>
-      <c r="T69" s="40"/>
-      <c r="U69" s="40"/>
-      <c r="V69" s="40"/>
-      <c r="W69" s="40"/>
-      <c r="X69" s="40"/>
-      <c r="Y69" s="40"/>
-      <c r="Z69" s="40"/>
+      <c r="K69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U69" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z69" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA69" s="41"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -4640,11 +6779,11 @@
       </c>
       <c r="E70" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F70" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G70" s="38" t="s">
         <v>20</v>
@@ -4652,24 +6791,58 @@
       <c r="H70" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I70" s="40"/>
+      <c r="I70" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J70" s="40"/>
-      <c r="K70" s="40"/>
-      <c r="L70" s="40"/>
-      <c r="M70" s="40"/>
-      <c r="N70" s="40"/>
-      <c r="O70" s="40"/>
-      <c r="P70" s="40"/>
-      <c r="Q70" s="40"/>
-      <c r="R70" s="40"/>
-      <c r="S70" s="40"/>
-      <c r="T70" s="40"/>
-      <c r="U70" s="40"/>
-      <c r="V70" s="40"/>
-      <c r="W70" s="40"/>
-      <c r="X70" s="40"/>
-      <c r="Y70" s="40"/>
-      <c r="Z70" s="40"/>
+      <c r="K70" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U70" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z70" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA70" s="41"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -4688,11 +6861,11 @@
       </c>
       <c r="E71" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F71" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G71" s="38" t="s">
         <v>20</v>
@@ -4700,24 +6873,58 @@
       <c r="H71" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I71" s="40"/>
+      <c r="I71" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J71" s="40"/>
-      <c r="K71" s="40"/>
-      <c r="L71" s="40"/>
-      <c r="M71" s="40"/>
-      <c r="N71" s="40"/>
-      <c r="O71" s="40"/>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="40"/>
-      <c r="R71" s="40"/>
-      <c r="S71" s="40"/>
-      <c r="T71" s="40"/>
-      <c r="U71" s="40"/>
-      <c r="V71" s="40"/>
-      <c r="W71" s="40"/>
-      <c r="X71" s="40"/>
-      <c r="Y71" s="40"/>
-      <c r="Z71" s="40"/>
+      <c r="K71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S71" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y71" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z71" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA71" s="41"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -4736,11 +6943,11 @@
       </c>
       <c r="E72" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F72" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G72" s="38" t="s">
         <v>20</v>
@@ -4748,24 +6955,58 @@
       <c r="H72" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I72" s="40"/>
+      <c r="I72" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J72" s="40"/>
-      <c r="K72" s="40"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="40"/>
-      <c r="N72" s="40"/>
-      <c r="O72" s="40"/>
-      <c r="P72" s="40"/>
-      <c r="Q72" s="40"/>
-      <c r="R72" s="40"/>
-      <c r="S72" s="40"/>
-      <c r="T72" s="40"/>
-      <c r="U72" s="40"/>
-      <c r="V72" s="40"/>
-      <c r="W72" s="40"/>
-      <c r="X72" s="40"/>
-      <c r="Y72" s="40"/>
-      <c r="Z72" s="40"/>
+      <c r="K72" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q72" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R72" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X72" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z72" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA72" s="41"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -4784,11 +7025,11 @@
       </c>
       <c r="E73" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G73" s="38" t="s">
         <v>20</v>
@@ -4796,24 +7037,58 @@
       <c r="H73" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I73" s="40"/>
+      <c r="I73" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J73" s="40"/>
-      <c r="K73" s="40"/>
-      <c r="L73" s="40"/>
-      <c r="M73" s="40"/>
-      <c r="N73" s="40"/>
-      <c r="O73" s="40"/>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="40"/>
-      <c r="R73" s="40"/>
-      <c r="S73" s="40"/>
-      <c r="T73" s="40"/>
-      <c r="U73" s="40"/>
-      <c r="V73" s="40"/>
-      <c r="W73" s="40"/>
-      <c r="X73" s="40"/>
-      <c r="Y73" s="40"/>
-      <c r="Z73" s="40"/>
+      <c r="K73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y73" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z73" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA73" s="41"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -4832,11 +7107,11 @@
       </c>
       <c r="E74" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F74" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G74" s="38" t="s">
         <v>20</v>
@@ -4844,24 +7119,58 @@
       <c r="H74" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I74" s="40"/>
+      <c r="I74" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J74" s="40"/>
-      <c r="K74" s="40"/>
-      <c r="L74" s="40"/>
-      <c r="M74" s="40"/>
-      <c r="N74" s="40"/>
-      <c r="O74" s="40"/>
-      <c r="P74" s="40"/>
-      <c r="Q74" s="40"/>
-      <c r="R74" s="40"/>
-      <c r="S74" s="40"/>
-      <c r="T74" s="40"/>
-      <c r="U74" s="40"/>
-      <c r="V74" s="40"/>
-      <c r="W74" s="40"/>
-      <c r="X74" s="40"/>
-      <c r="Y74" s="40"/>
-      <c r="Z74" s="40"/>
+      <c r="K74" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S74" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z74" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA74" s="41"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -4880,11 +7189,11 @@
       </c>
       <c r="E75" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F75" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G75" s="38" t="s">
         <v>21</v>
@@ -4892,24 +7201,58 @@
       <c r="H75" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I75" s="40"/>
+      <c r="I75" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J75" s="40"/>
-      <c r="K75" s="40"/>
-      <c r="L75" s="40"/>
-      <c r="M75" s="40"/>
-      <c r="N75" s="40"/>
-      <c r="O75" s="40"/>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="40"/>
-      <c r="R75" s="40"/>
-      <c r="S75" s="40"/>
-      <c r="T75" s="40"/>
-      <c r="U75" s="40"/>
-      <c r="V75" s="40"/>
-      <c r="W75" s="40"/>
-      <c r="X75" s="40"/>
-      <c r="Y75" s="40"/>
-      <c r="Z75" s="40"/>
+      <c r="K75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L75" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V75" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z75" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA75" s="41"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
@@ -4928,11 +7271,11 @@
       </c>
       <c r="E76" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F76" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G76" s="38" t="s">
         <v>21</v>
@@ -4940,24 +7283,58 @@
       <c r="H76" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I76" s="40"/>
+      <c r="I76" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="40"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="40"/>
-      <c r="T76" s="40"/>
-      <c r="U76" s="40"/>
-      <c r="V76" s="40"/>
-      <c r="W76" s="40"/>
-      <c r="X76" s="40"/>
-      <c r="Y76" s="40"/>
-      <c r="Z76" s="40"/>
+      <c r="K76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M76" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N76" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T76" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V76" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z76" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA76" s="41"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
@@ -4976,7 +7353,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G77" s="42"/>
+      <c r="G77" s="38"/>
       <c r="H77" s="40"/>
       <c r="I77" s="40"/>
       <c r="J77" s="40"/>
@@ -4988,7 +7365,7 @@
       <c r="P77" s="40"/>
       <c r="Q77" s="40"/>
       <c r="R77" s="40"/>
-      <c r="S77" s="40"/>
+      <c r="S77" s="39"/>
       <c r="T77" s="40"/>
       <c r="U77" s="40"/>
       <c r="V77" s="40"/>
@@ -5014,7 +7391,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G78" s="43"/>
+      <c r="G78" s="42"/>
       <c r="H78" s="41"/>
       <c r="I78" s="41"/>
       <c r="J78" s="41"/>
@@ -5052,7 +7429,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G79" s="43"/>
+      <c r="G79" s="42"/>
       <c r="H79" s="41"/>
       <c r="I79" s="41"/>
       <c r="J79" s="41"/>
@@ -5090,7 +7467,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G80" s="43"/>
+      <c r="G80" s="42"/>
       <c r="H80" s="41"/>
       <c r="I80" s="41"/>
       <c r="J80" s="41"/>
@@ -5128,7 +7505,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G81" s="43"/>
+      <c r="G81" s="42"/>
       <c r="H81" s="41"/>
       <c r="I81" s="41"/>
       <c r="J81" s="41"/>
@@ -5166,7 +7543,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G82" s="43"/>
+      <c r="G82" s="42"/>
       <c r="H82" s="41"/>
       <c r="I82" s="41"/>
       <c r="J82" s="41"/>
@@ -5204,7 +7581,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G83" s="43"/>
+      <c r="G83" s="42"/>
       <c r="H83" s="41"/>
       <c r="I83" s="41"/>
       <c r="J83" s="41"/>
@@ -5242,7 +7619,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G84" s="43"/>
+      <c r="G84" s="42"/>
       <c r="H84" s="41"/>
       <c r="I84" s="41"/>
       <c r="J84" s="41"/>
@@ -5269,8 +7646,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B85" s="44"/>
-      <c r="C85" s="44"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
       <c r="D85" s="28"/>
       <c r="E85" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5280,7 +7657,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G85" s="43"/>
+      <c r="G85" s="42"/>
       <c r="H85" s="41"/>
       <c r="I85" s="41"/>
       <c r="J85" s="41"/>
@@ -5307,8 +7684,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B86" s="44"/>
-      <c r="C86" s="44"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
       <c r="D86" s="28"/>
       <c r="E86" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5318,7 +7695,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G86" s="43"/>
+      <c r="G86" s="42"/>
       <c r="H86" s="41"/>
       <c r="I86" s="41"/>
       <c r="J86" s="41"/>
@@ -5345,8 +7722,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B87" s="44"/>
-      <c r="C87" s="44"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
       <c r="D87" s="28"/>
       <c r="E87" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5356,7 +7733,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G87" s="43"/>
+      <c r="G87" s="42"/>
       <c r="H87" s="41"/>
       <c r="I87" s="41"/>
       <c r="J87" s="41"/>
@@ -5383,8 +7760,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
       <c r="D88" s="28"/>
       <c r="E88" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5394,7 +7771,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G88" s="43"/>
+      <c r="G88" s="42"/>
       <c r="H88" s="41"/>
       <c r="I88" s="41"/>
       <c r="J88" s="41"/>
@@ -5421,8 +7798,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B89" s="44"/>
-      <c r="C89" s="44"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
       <c r="D89" s="28"/>
       <c r="E89" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5432,7 +7809,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G89" s="43"/>
+      <c r="G89" s="42"/>
       <c r="H89" s="41"/>
       <c r="I89" s="41"/>
       <c r="J89" s="41"/>
@@ -5459,8 +7836,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B90" s="44"/>
-      <c r="C90" s="44"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
       <c r="D90" s="28"/>
       <c r="E90" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5470,7 +7847,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G90" s="43"/>
+      <c r="G90" s="42"/>
       <c r="H90" s="41"/>
       <c r="I90" s="41"/>
       <c r="J90" s="41"/>
@@ -5497,8 +7874,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B91" s="44"/>
-      <c r="C91" s="44"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
       <c r="D91" s="28"/>
       <c r="E91" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5508,7 +7885,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G91" s="43"/>
+      <c r="G91" s="42"/>
       <c r="H91" s="41"/>
       <c r="I91" s="41"/>
       <c r="J91" s="41"/>
@@ -5535,8 +7912,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B92" s="44"/>
-      <c r="C92" s="44"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
       <c r="D92" s="28"/>
       <c r="E92" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5546,7 +7923,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G92" s="43"/>
+      <c r="G92" s="42"/>
       <c r="H92" s="41"/>
       <c r="I92" s="41"/>
       <c r="J92" s="41"/>
@@ -5573,8 +7950,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B93" s="44"/>
-      <c r="C93" s="44"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
       <c r="D93" s="28"/>
       <c r="E93" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5584,7 +7961,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G93" s="43"/>
+      <c r="G93" s="42"/>
       <c r="H93" s="41"/>
       <c r="I93" s="41"/>
       <c r="J93" s="41"/>
@@ -5611,8 +7988,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B94" s="44"/>
-      <c r="C94" s="44"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
       <c r="D94" s="28"/>
       <c r="E94" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5622,7 +7999,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G94" s="43"/>
+      <c r="G94" s="42"/>
       <c r="H94" s="41"/>
       <c r="I94" s="41"/>
       <c r="J94" s="41"/>
@@ -5649,8 +8026,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B95" s="44"/>
-      <c r="C95" s="44"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
       <c r="D95" s="28"/>
       <c r="E95" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5660,7 +8037,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G95" s="43"/>
+      <c r="G95" s="42"/>
       <c r="H95" s="41"/>
       <c r="I95" s="41"/>
       <c r="J95" s="41"/>

--- a/attendance-files/SDM/SDM-M (ABCD) Attendance Sheet.xlsx
+++ b/attendance-files/SDM/SDM-M (ABCD) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="160">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F7" s="29">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>20</v>
@@ -1656,27 +1656,13 @@
       <c r="S7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="U7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="V7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="W7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="X7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z7" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
       <c r="AA7" s="33"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -1699,7 +1685,7 @@
       </c>
       <c r="F8" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>20</v>
@@ -1738,27 +1724,13 @@
       <c r="S8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T8" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U8" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V8" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X8" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y8" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z8" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
       <c r="AA8" s="41"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -1781,7 +1753,7 @@
       </c>
       <c r="F9" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>20</v>
@@ -1820,27 +1792,13 @@
       <c r="S9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U9" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V9" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W9" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X9" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y9" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z9" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
       <c r="AA9" s="41"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -1863,7 +1821,7 @@
       </c>
       <c r="F10" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>20</v>
@@ -1902,27 +1860,13 @@
       <c r="S10" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T10" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U10" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V10" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W10" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X10" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y10" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z10" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
       <c r="AA10" s="41"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -1941,11 +1885,11 @@
       </c>
       <c r="E11" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>21</v>
@@ -1984,27 +1928,13 @@
       <c r="S11" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T11" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="U11" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V11" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W11" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X11" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y11" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z11" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
       <c r="AA11" s="41"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -2023,11 +1953,11 @@
       </c>
       <c r="E12" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>21</v>
@@ -2066,27 +1996,13 @@
       <c r="S12" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z12" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
       <c r="AA12" s="41"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -2105,11 +2021,11 @@
       </c>
       <c r="E13" s="28">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F13" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G13" s="38" t="s">
         <v>20</v>
@@ -2148,27 +2064,13 @@
       <c r="S13" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T13" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U13" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="X13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z13" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
       <c r="AA13" s="41"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -2187,11 +2089,11 @@
       </c>
       <c r="E14" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>21</v>
@@ -2230,27 +2132,13 @@
       <c r="S14" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V14" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X14" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z14" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
       <c r="AA14" s="41"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -2273,7 +2161,7 @@
       </c>
       <c r="F15" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>20</v>
@@ -2312,27 +2200,13 @@
       <c r="S15" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z15" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
       <c r="AA15" s="41"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -2351,11 +2225,11 @@
       </c>
       <c r="E16" s="28">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F16" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>20</v>
@@ -2394,27 +2268,13 @@
       <c r="S16" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T16" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U16" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="V16" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W16" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X16" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y16" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z16" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
       <c r="AA16" s="41"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -2437,7 +2297,7 @@
       </c>
       <c r="F17" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>21</v>
@@ -2476,27 +2336,13 @@
       <c r="S17" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z17" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
       <c r="AA17" s="41"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -2519,7 +2365,7 @@
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>20</v>
@@ -2558,27 +2404,13 @@
       <c r="S18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z18" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
       <c r="AA18" s="41"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -2597,11 +2429,11 @@
       </c>
       <c r="E19" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G19" s="38" t="s">
         <v>20</v>
@@ -2640,27 +2472,13 @@
       <c r="S19" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T19" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U19" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V19" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W19" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X19" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y19" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z19" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
       <c r="AA19" s="41"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -2683,7 +2501,7 @@
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G20" s="38" t="s">
         <v>20</v>
@@ -2722,27 +2540,13 @@
       <c r="S20" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z20" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
       <c r="AA20" s="41"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -2761,11 +2565,11 @@
       </c>
       <c r="E21" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G21" s="38" t="s">
         <v>21</v>
@@ -2804,27 +2608,13 @@
       <c r="S21" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z21" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
       <c r="AA21" s="41"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -2843,11 +2633,11 @@
       </c>
       <c r="E22" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>20</v>
@@ -2886,27 +2676,13 @@
       <c r="S22" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V22" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z22" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
       <c r="AA22" s="41"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -2925,11 +2701,11 @@
       </c>
       <c r="E23" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G23" s="38" t="s">
         <v>20</v>
@@ -2968,27 +2744,13 @@
       <c r="S23" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T23" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="U23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z23" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
       <c r="AA23" s="41"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -3011,7 +2773,7 @@
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G24" s="38" t="s">
         <v>20</v>
@@ -3050,27 +2812,13 @@
       <c r="S24" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z24" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
       <c r="AA24" s="41"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -3093,7 +2841,7 @@
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G25" s="38" t="s">
         <v>21</v>
@@ -3132,27 +2880,13 @@
       <c r="S25" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T25" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U25" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V25" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W25" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X25" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y25" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z25" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
       <c r="AA25" s="41"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -3175,7 +2909,7 @@
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>21</v>
@@ -3214,27 +2948,13 @@
       <c r="S26" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T26" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U26" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V26" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W26" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X26" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y26" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z26" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
       <c r="AA26" s="41"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -3253,11 +2973,11 @@
       </c>
       <c r="E27" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G27" s="38" t="s">
         <v>21</v>
@@ -3296,27 +3016,13 @@
       <c r="S27" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T27" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U27" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V27" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W27" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X27" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y27" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z27" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
       <c r="AA27" s="41"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -3335,11 +3041,11 @@
       </c>
       <c r="E28" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G28" s="38" t="s">
         <v>20</v>
@@ -3378,27 +3084,13 @@
       <c r="S28" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z28" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
       <c r="AA28" s="41"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -3417,11 +3109,11 @@
       </c>
       <c r="E29" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G29" s="38" t="s">
         <v>21</v>
@@ -3460,27 +3152,13 @@
       <c r="S29" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T29" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U29" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V29" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W29" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="X29" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y29" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z29" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="40"/>
       <c r="AA29" s="41"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -3499,11 +3177,11 @@
       </c>
       <c r="E30" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F30" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G30" s="38" t="s">
         <v>20</v>
@@ -3542,27 +3220,13 @@
       <c r="S30" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T30" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="U30" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="V30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z30" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="40"/>
       <c r="AA30" s="41"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -3581,11 +3245,11 @@
       </c>
       <c r="E31" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>20</v>
@@ -3624,27 +3288,13 @@
       <c r="S31" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T31" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U31" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V31" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W31" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X31" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y31" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z31" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
       <c r="AA31" s="41"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -3667,7 +3317,7 @@
       </c>
       <c r="F32" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G32" s="38" t="s">
         <v>20</v>
@@ -3706,27 +3356,13 @@
       <c r="S32" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z32" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="40"/>
       <c r="AA32" s="41"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -3749,7 +3385,7 @@
       </c>
       <c r="F33" s="37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G33" s="38" t="s">
         <v>20</v>
@@ -3788,27 +3424,13 @@
       <c r="S33" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z33" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="40"/>
       <c r="AA33" s="41"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -3827,11 +3449,11 @@
       </c>
       <c r="E34" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G34" s="38" t="s">
         <v>20</v>
@@ -3870,27 +3492,13 @@
       <c r="S34" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y34" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z34" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="40"/>
       <c r="AA34" s="41"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -3913,7 +3521,7 @@
       </c>
       <c r="F35" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G35" s="38" t="s">
         <v>20</v>
@@ -3952,27 +3560,13 @@
       <c r="S35" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T35" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U35" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V35" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W35" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X35" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y35" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z35" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="40"/>
       <c r="AA35" s="41"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -3991,11 +3585,11 @@
       </c>
       <c r="E36" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F36" s="37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G36" s="38" t="s">
         <v>21</v>
@@ -4034,27 +3628,13 @@
       <c r="S36" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T36" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="U36" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="V36" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W36" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X36" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y36" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z36" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="40"/>
       <c r="AA36" s="41"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -4073,11 +3653,11 @@
       </c>
       <c r="E37" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G37" s="38" t="s">
         <v>20</v>
@@ -4116,27 +3696,13 @@
       <c r="S37" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T37" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U37" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V37" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W37" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X37" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y37" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z37" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="40"/>
       <c r="AA37" s="41"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -4155,11 +3721,11 @@
       </c>
       <c r="E38" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F38" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G38" s="38" t="s">
         <v>21</v>
@@ -4198,27 +3764,13 @@
       <c r="S38" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T38" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U38" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V38" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W38" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X38" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y38" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z38" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="T38" s="40"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="40"/>
+      <c r="Z38" s="40"/>
       <c r="AA38" s="41"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -4241,7 +3793,7 @@
       </c>
       <c r="F39" s="37">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G39" s="38" t="s">
         <v>21</v>
@@ -4280,27 +3832,13 @@
       <c r="S39" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T39" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U39" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V39" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W39" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X39" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y39" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z39" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="40"/>
+      <c r="Z39" s="40"/>
       <c r="AA39" s="41"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -4319,11 +3857,11 @@
       </c>
       <c r="E40" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G40" s="38" t="s">
         <v>20</v>
@@ -4362,27 +3900,13 @@
       <c r="S40" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T40" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U40" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V40" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W40" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X40" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y40" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z40" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T40" s="40"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="40"/>
+      <c r="W40" s="40"/>
+      <c r="X40" s="40"/>
+      <c r="Y40" s="40"/>
+      <c r="Z40" s="40"/>
       <c r="AA40" s="41"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -4405,7 +3929,7 @@
       </c>
       <c r="F41" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G41" s="38" t="s">
         <v>21</v>
@@ -4444,27 +3968,13 @@
       <c r="S41" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T41" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U41" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V41" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W41" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X41" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y41" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z41" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T41" s="40"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="40"/>
+      <c r="W41" s="40"/>
+      <c r="X41" s="40"/>
+      <c r="Y41" s="40"/>
+      <c r="Z41" s="40"/>
       <c r="AA41" s="41"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -4483,11 +3993,11 @@
       </c>
       <c r="E42" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F42" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G42" s="38" t="s">
         <v>21</v>
@@ -4526,27 +4036,13 @@
       <c r="S42" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T42" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U42" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V42" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W42" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X42" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y42" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z42" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T42" s="40"/>
+      <c r="U42" s="40"/>
+      <c r="V42" s="40"/>
+      <c r="W42" s="40"/>
+      <c r="X42" s="40"/>
+      <c r="Y42" s="40"/>
+      <c r="Z42" s="40"/>
       <c r="AA42" s="41"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -4565,11 +4061,11 @@
       </c>
       <c r="E43" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G43" s="38" t="s">
         <v>20</v>
@@ -4608,27 +4104,13 @@
       <c r="S43" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T43" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U43" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V43" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W43" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="X43" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y43" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z43" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T43" s="40"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="40"/>
+      <c r="X43" s="40"/>
+      <c r="Y43" s="40"/>
+      <c r="Z43" s="40"/>
       <c r="AA43" s="41"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -4651,7 +4133,7 @@
       </c>
       <c r="F44" s="37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G44" s="38" t="s">
         <v>21</v>
@@ -4690,27 +4172,13 @@
       <c r="S44" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T44" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U44" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V44" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W44" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X44" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y44" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z44" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T44" s="40"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="40"/>
+      <c r="W44" s="40"/>
+      <c r="X44" s="40"/>
+      <c r="Y44" s="40"/>
+      <c r="Z44" s="40"/>
       <c r="AA44" s="41"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -4729,11 +4197,11 @@
       </c>
       <c r="E45" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="37">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>21</v>
@@ -4772,27 +4240,13 @@
       <c r="S45" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U45" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="V45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z45" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="40"/>
       <c r="AA45" s="41"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -4811,11 +4265,11 @@
       </c>
       <c r="E46" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G46" s="38" t="s">
         <v>20</v>
@@ -4854,27 +4308,13 @@
       <c r="S46" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T46" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="U46" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V46" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W46" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X46" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y46" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z46" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T46" s="40"/>
+      <c r="U46" s="40"/>
+      <c r="V46" s="40"/>
+      <c r="W46" s="40"/>
+      <c r="X46" s="40"/>
+      <c r="Y46" s="40"/>
+      <c r="Z46" s="40"/>
       <c r="AA46" s="41"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -4897,7 +4337,7 @@
       </c>
       <c r="F47" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G47" s="38" t="s">
         <v>20</v>
@@ -4936,27 +4376,13 @@
       <c r="S47" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T47" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U47" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V47" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W47" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X47" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y47" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z47" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T47" s="40"/>
+      <c r="U47" s="40"/>
+      <c r="V47" s="40"/>
+      <c r="W47" s="40"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40"/>
+      <c r="Z47" s="40"/>
       <c r="AA47" s="41"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -4979,7 +4405,7 @@
       </c>
       <c r="F48" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G48" s="38" t="s">
         <v>20</v>
@@ -5018,27 +4444,13 @@
       <c r="S48" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T48" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U48" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V48" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W48" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X48" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y48" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z48" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T48" s="40"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="40"/>
+      <c r="W48" s="40"/>
+      <c r="X48" s="40"/>
+      <c r="Y48" s="40"/>
+      <c r="Z48" s="40"/>
       <c r="AA48" s="41"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -5061,7 +4473,7 @@
       </c>
       <c r="F49" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G49" s="38" t="s">
         <v>20</v>
@@ -5100,27 +4512,13 @@
       <c r="S49" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T49" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U49" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V49" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W49" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X49" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y49" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z49" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T49" s="40"/>
+      <c r="U49" s="40"/>
+      <c r="V49" s="40"/>
+      <c r="W49" s="40"/>
+      <c r="X49" s="40"/>
+      <c r="Y49" s="40"/>
+      <c r="Z49" s="40"/>
       <c r="AA49" s="41"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -5143,7 +4541,7 @@
       </c>
       <c r="F50" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G50" s="38" t="s">
         <v>20</v>
@@ -5182,27 +4580,13 @@
       <c r="S50" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z50" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T50" s="40"/>
+      <c r="U50" s="40"/>
+      <c r="V50" s="40"/>
+      <c r="W50" s="40"/>
+      <c r="X50" s="40"/>
+      <c r="Y50" s="40"/>
+      <c r="Z50" s="40"/>
       <c r="AA50" s="41"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -5221,11 +4605,11 @@
       </c>
       <c r="E51" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G51" s="38" t="s">
         <v>20</v>
@@ -5264,27 +4648,13 @@
       <c r="S51" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z51" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="T51" s="40"/>
+      <c r="U51" s="40"/>
+      <c r="V51" s="40"/>
+      <c r="W51" s="40"/>
+      <c r="X51" s="40"/>
+      <c r="Y51" s="40"/>
+      <c r="Z51" s="40"/>
       <c r="AA51" s="41"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -5303,11 +4673,11 @@
       </c>
       <c r="E52" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F52" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G52" s="38" t="s">
         <v>21</v>
@@ -5346,27 +4716,13 @@
       <c r="S52" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T52" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U52" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V52" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W52" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X52" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y52" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z52" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="T52" s="40"/>
+      <c r="U52" s="40"/>
+      <c r="V52" s="40"/>
+      <c r="W52" s="40"/>
+      <c r="X52" s="40"/>
+      <c r="Y52" s="40"/>
+      <c r="Z52" s="40"/>
       <c r="AA52" s="41"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -5385,11 +4741,11 @@
       </c>
       <c r="E53" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F53" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G53" s="38" t="s">
         <v>20</v>
@@ -5428,27 +4784,13 @@
       <c r="S53" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T53" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U53" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V53" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W53" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X53" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y53" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z53" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="T53" s="40"/>
+      <c r="U53" s="40"/>
+      <c r="V53" s="40"/>
+      <c r="W53" s="40"/>
+      <c r="X53" s="40"/>
+      <c r="Y53" s="40"/>
+      <c r="Z53" s="40"/>
       <c r="AA53" s="41"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -5467,11 +4809,11 @@
       </c>
       <c r="E54" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G54" s="38" t="s">
         <v>20</v>
@@ -5510,27 +4852,13 @@
       <c r="S54" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U54" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="V54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z54" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T54" s="40"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="40"/>
+      <c r="Z54" s="40"/>
       <c r="AA54" s="41"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -5549,11 +4877,11 @@
       </c>
       <c r="E55" s="28">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F55" s="37">
+        <f t="shared" si="2"/>
         <v>8</v>
-      </c>
-      <c r="F55" s="37">
-        <f t="shared" si="2"/>
-        <v>11</v>
       </c>
       <c r="G55" s="38" t="s">
         <v>20</v>
@@ -5592,27 +4920,13 @@
       <c r="S55" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T55" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U55" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V55" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W55" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="X55" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y55" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z55" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="T55" s="40"/>
+      <c r="U55" s="40"/>
+      <c r="V55" s="40"/>
+      <c r="W55" s="40"/>
+      <c r="X55" s="40"/>
+      <c r="Y55" s="40"/>
+      <c r="Z55" s="40"/>
       <c r="AA55" s="41"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -5631,11 +4945,11 @@
       </c>
       <c r="E56" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G56" s="38" t="s">
         <v>20</v>
@@ -5674,27 +4988,13 @@
       <c r="S56" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T56" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U56" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V56" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W56" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X56" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y56" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z56" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T56" s="40"/>
+      <c r="U56" s="40"/>
+      <c r="V56" s="40"/>
+      <c r="W56" s="40"/>
+      <c r="X56" s="40"/>
+      <c r="Y56" s="40"/>
+      <c r="Z56" s="40"/>
       <c r="AA56" s="41"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -5713,11 +5013,11 @@
       </c>
       <c r="E57" s="28">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>20</v>
@@ -5756,27 +5056,13 @@
       <c r="S57" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T57" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U57" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="V57" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W57" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X57" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y57" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z57" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T57" s="40"/>
+      <c r="U57" s="40"/>
+      <c r="V57" s="40"/>
+      <c r="W57" s="40"/>
+      <c r="X57" s="40"/>
+      <c r="Y57" s="40"/>
+      <c r="Z57" s="40"/>
       <c r="AA57" s="41"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -5799,7 +5085,7 @@
       </c>
       <c r="F58" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>20</v>
@@ -5838,27 +5124,13 @@
       <c r="S58" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T58" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U58" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V58" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W58" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X58" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y58" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z58" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T58" s="40"/>
+      <c r="U58" s="40"/>
+      <c r="V58" s="40"/>
+      <c r="W58" s="40"/>
+      <c r="X58" s="40"/>
+      <c r="Y58" s="40"/>
+      <c r="Z58" s="40"/>
       <c r="AA58" s="41"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -5877,11 +5149,11 @@
       </c>
       <c r="E59" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G59" s="38" t="s">
         <v>20</v>
@@ -5920,27 +5192,13 @@
       <c r="S59" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T59" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U59" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V59" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W59" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X59" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y59" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z59" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T59" s="40"/>
+      <c r="U59" s="40"/>
+      <c r="V59" s="40"/>
+      <c r="W59" s="40"/>
+      <c r="X59" s="40"/>
+      <c r="Y59" s="40"/>
+      <c r="Z59" s="40"/>
       <c r="AA59" s="41"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -5959,11 +5217,11 @@
       </c>
       <c r="E60" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F60" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G60" s="38" t="s">
         <v>21</v>
@@ -6002,27 +5260,13 @@
       <c r="S60" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T60" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="U60" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="V60" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W60" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X60" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y60" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z60" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="T60" s="40"/>
+      <c r="U60" s="40"/>
+      <c r="V60" s="40"/>
+      <c r="W60" s="40"/>
+      <c r="X60" s="40"/>
+      <c r="Y60" s="40"/>
+      <c r="Z60" s="40"/>
       <c r="AA60" s="41"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -6045,7 +5289,7 @@
       </c>
       <c r="F61" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G61" s="38" t="s">
         <v>20</v>
@@ -6084,27 +5328,13 @@
       <c r="S61" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T61" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U61" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V61" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W61" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X61" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y61" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z61" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T61" s="40"/>
+      <c r="U61" s="40"/>
+      <c r="V61" s="40"/>
+      <c r="W61" s="40"/>
+      <c r="X61" s="40"/>
+      <c r="Y61" s="40"/>
+      <c r="Z61" s="40"/>
       <c r="AA61" s="41"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -6123,11 +5353,11 @@
       </c>
       <c r="E62" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F62" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G62" s="38" t="s">
         <v>20</v>
@@ -6166,27 +5396,13 @@
       <c r="S62" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T62" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="U62" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="V62" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W62" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X62" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y62" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z62" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T62" s="40"/>
+      <c r="U62" s="40"/>
+      <c r="V62" s="40"/>
+      <c r="W62" s="40"/>
+      <c r="X62" s="40"/>
+      <c r="Y62" s="40"/>
+      <c r="Z62" s="40"/>
       <c r="AA62" s="41"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -6205,11 +5421,11 @@
       </c>
       <c r="E63" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F63" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G63" s="38" t="s">
         <v>21</v>
@@ -6248,27 +5464,13 @@
       <c r="S63" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T63" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U63" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="V63" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W63" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X63" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y63" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z63" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T63" s="40"/>
+      <c r="U63" s="40"/>
+      <c r="V63" s="40"/>
+      <c r="W63" s="40"/>
+      <c r="X63" s="40"/>
+      <c r="Y63" s="40"/>
+      <c r="Z63" s="40"/>
       <c r="AA63" s="41"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -6287,11 +5489,11 @@
       </c>
       <c r="E64" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G64" s="38" t="s">
         <v>21</v>
@@ -6330,27 +5532,13 @@
       <c r="S64" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y64" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z64" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T64" s="40"/>
+      <c r="U64" s="40"/>
+      <c r="V64" s="40"/>
+      <c r="W64" s="40"/>
+      <c r="X64" s="40"/>
+      <c r="Y64" s="40"/>
+      <c r="Z64" s="40"/>
       <c r="AA64" s="41"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -6369,11 +5557,11 @@
       </c>
       <c r="E65" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F65" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G65" s="38" t="s">
         <v>21</v>
@@ -6412,27 +5600,13 @@
       <c r="S65" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T65" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="U65" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V65" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W65" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X65" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y65" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z65" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T65" s="40"/>
+      <c r="U65" s="40"/>
+      <c r="V65" s="40"/>
+      <c r="W65" s="40"/>
+      <c r="X65" s="40"/>
+      <c r="Y65" s="40"/>
+      <c r="Z65" s="40"/>
       <c r="AA65" s="41"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -6451,11 +5625,11 @@
       </c>
       <c r="E66" s="28">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F66" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G66" s="38" t="s">
         <v>20</v>
@@ -6494,27 +5668,13 @@
       <c r="S66" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T66" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U66" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V66" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W66" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X66" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y66" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z66" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T66" s="40"/>
+      <c r="U66" s="40"/>
+      <c r="V66" s="40"/>
+      <c r="W66" s="40"/>
+      <c r="X66" s="40"/>
+      <c r="Y66" s="40"/>
+      <c r="Z66" s="40"/>
       <c r="AA66" s="41"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -6537,7 +5697,7 @@
       </c>
       <c r="F67" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G67" s="38" t="s">
         <v>20</v>
@@ -6576,27 +5736,13 @@
       <c r="S67" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T67" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U67" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V67" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W67" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X67" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y67" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z67" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T67" s="40"/>
+      <c r="U67" s="40"/>
+      <c r="V67" s="40"/>
+      <c r="W67" s="40"/>
+      <c r="X67" s="40"/>
+      <c r="Y67" s="40"/>
+      <c r="Z67" s="40"/>
       <c r="AA67" s="41"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -6615,11 +5761,11 @@
       </c>
       <c r="E68" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F68" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>20</v>
@@ -6658,27 +5804,13 @@
       <c r="S68" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T68" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U68" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="V68" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W68" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X68" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y68" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z68" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T68" s="40"/>
+      <c r="U68" s="40"/>
+      <c r="V68" s="40"/>
+      <c r="W68" s="40"/>
+      <c r="X68" s="40"/>
+      <c r="Y68" s="40"/>
+      <c r="Z68" s="40"/>
       <c r="AA68" s="41"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -6697,11 +5829,11 @@
       </c>
       <c r="E69" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G69" s="38" t="s">
         <v>20</v>
@@ -6740,27 +5872,13 @@
       <c r="S69" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U69" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="V69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z69" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T69" s="40"/>
+      <c r="U69" s="40"/>
+      <c r="V69" s="40"/>
+      <c r="W69" s="40"/>
+      <c r="X69" s="40"/>
+      <c r="Y69" s="40"/>
+      <c r="Z69" s="40"/>
       <c r="AA69" s="41"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -6779,11 +5897,11 @@
       </c>
       <c r="E70" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G70" s="38" t="s">
         <v>20</v>
@@ -6822,27 +5940,13 @@
       <c r="S70" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T70" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U70" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="V70" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W70" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X70" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y70" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z70" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T70" s="40"/>
+      <c r="U70" s="40"/>
+      <c r="V70" s="40"/>
+      <c r="W70" s="40"/>
+      <c r="X70" s="40"/>
+      <c r="Y70" s="40"/>
+      <c r="Z70" s="40"/>
       <c r="AA70" s="41"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -6861,11 +5965,11 @@
       </c>
       <c r="E71" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F71" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G71" s="38" t="s">
         <v>20</v>
@@ -6904,27 +6008,13 @@
       <c r="S71" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y71" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z71" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T71" s="40"/>
+      <c r="U71" s="40"/>
+      <c r="V71" s="40"/>
+      <c r="W71" s="40"/>
+      <c r="X71" s="40"/>
+      <c r="Y71" s="40"/>
+      <c r="Z71" s="40"/>
       <c r="AA71" s="41"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -6943,11 +6033,11 @@
       </c>
       <c r="E72" s="28">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F72" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G72" s="38" t="s">
         <v>20</v>
@@ -6986,27 +6076,13 @@
       <c r="S72" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T72" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U72" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V72" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W72" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X72" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y72" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z72" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T72" s="40"/>
+      <c r="U72" s="40"/>
+      <c r="V72" s="40"/>
+      <c r="W72" s="40"/>
+      <c r="X72" s="40"/>
+      <c r="Y72" s="40"/>
+      <c r="Z72" s="40"/>
       <c r="AA72" s="41"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -7025,11 +6101,11 @@
       </c>
       <c r="E73" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G73" s="38" t="s">
         <v>20</v>
@@ -7068,27 +6144,13 @@
       <c r="S73" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T73" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U73" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V73" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W73" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X73" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y73" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z73" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T73" s="40"/>
+      <c r="U73" s="40"/>
+      <c r="V73" s="40"/>
+      <c r="W73" s="40"/>
+      <c r="X73" s="40"/>
+      <c r="Y73" s="40"/>
+      <c r="Z73" s="40"/>
       <c r="AA73" s="41"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -7111,7 +6173,7 @@
       </c>
       <c r="F74" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G74" s="38" t="s">
         <v>20</v>
@@ -7150,27 +6212,13 @@
       <c r="S74" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T74" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U74" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V74" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W74" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X74" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y74" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z74" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T74" s="40"/>
+      <c r="U74" s="40"/>
+      <c r="V74" s="40"/>
+      <c r="W74" s="40"/>
+      <c r="X74" s="40"/>
+      <c r="Y74" s="40"/>
+      <c r="Z74" s="40"/>
       <c r="AA74" s="41"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -7189,11 +6237,11 @@
       </c>
       <c r="E75" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" s="37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G75" s="38" t="s">
         <v>21</v>
@@ -7232,27 +6280,13 @@
       <c r="S75" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T75" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U75" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V75" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W75" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X75" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y75" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z75" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T75" s="40"/>
+      <c r="U75" s="40"/>
+      <c r="V75" s="40"/>
+      <c r="W75" s="40"/>
+      <c r="X75" s="40"/>
+      <c r="Y75" s="40"/>
+      <c r="Z75" s="40"/>
       <c r="AA75" s="41"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
@@ -7271,11 +6305,11 @@
       </c>
       <c r="E76" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F76" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G76" s="38" t="s">
         <v>21</v>
@@ -7314,27 +6348,13 @@
       <c r="S76" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T76" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="U76" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V76" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W76" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X76" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y76" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z76" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T76" s="40"/>
+      <c r="U76" s="40"/>
+      <c r="V76" s="40"/>
+      <c r="W76" s="40"/>
+      <c r="X76" s="40"/>
+      <c r="Y76" s="40"/>
+      <c r="Z76" s="40"/>
       <c r="AA76" s="41"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
